--- a/static/documents/Supplemental_data.xlsx
+++ b/static/documents/Supplemental_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odin_local_backup\JHU data\WebTool_HTML\static\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blucci\Desktop\piv\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14556" windowHeight="7812"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14556" windowHeight="7812" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestChart" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="diary." localSheetId="2">'Array Descriptions'!$A$1:$C$37</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="498">
   <si>
     <t>Q25_smooth_small_sc655</t>
   </si>
@@ -1131,9 +1131,6 @@
       </rPr>
       <t>)^2))</t>
     </r>
-  </si>
-  <si>
-    <t>'Axial casing groove, L1 meridional plane, Q=0.35, sc437,2431'</t>
   </si>
   <si>
     <t>U_Groove_Q25_M1_plane_sc000_all_data</t>
@@ -3392,19 +3389,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3416,46 +3440,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3491,46 +3479,55 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -6799,16 +6796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>12387</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>134307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>40962</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>162882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6831,7 +6828,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6012180" y="7144707"/>
+          <a:off x="5425440" y="8729667"/>
           <a:ext cx="7840980" cy="5880735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6843,16 +6840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>408228</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>142190</xdr:rowOff>
+      <xdr:colOff>263448</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>27890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6869,7 +6866,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6012180" y="14813280"/>
+          <a:off x="5303520" y="24208740"/>
           <a:ext cx="10771428" cy="5262830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6884,13 +6881,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>274321</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>292095</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>168482</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471494</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>38942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6907,8 +6904,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286501" y="40774620"/>
-          <a:ext cx="7332974" cy="7308422"/>
+          <a:off x="5722621" y="43327320"/>
+          <a:ext cx="6293173" cy="6272102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>156677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5844540" y="15857220"/>
+          <a:ext cx="5814060" cy="6245057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7189,7 +7224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -7203,69 +7238,69 @@
   <sheetData>
     <row r="1" spans="4:16" ht="29.4" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="4:16" ht="18" x14ac:dyDescent="0.35">
       <c r="D2" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="4:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="120" t="s">
         <v>398</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="F4" s="121"/>
+      <c r="G4" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="120" t="s">
         <v>400</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="I4" s="121"/>
+      <c r="J4" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="12" t="s">
+    </row>
+    <row r="5" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="108" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="5" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="77" t="s">
+      <c r="E5" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="63">
         <v>0.25</v>
       </c>
-      <c r="H5" s="83" t="s">
-        <v>405</v>
-      </c>
-      <c r="I5" s="84"/>
+      <c r="H5" s="110" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="111"/>
       <c r="J5" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="78"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="64">
         <v>0.35</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>405</v>
-      </c>
-      <c r="I6" s="86"/>
+      <c r="H6" s="112" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6" s="113"/>
       <c r="J6" s="14">
         <v>6</v>
       </c>
@@ -7280,35 +7315,35 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="77" t="s">
-        <v>406</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>404</v>
-      </c>
-      <c r="F8" s="80"/>
+      <c r="D8" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="89"/>
       <c r="G8" s="63">
         <v>0.25</v>
       </c>
-      <c r="H8" s="83" t="s">
-        <v>405</v>
-      </c>
-      <c r="I8" s="84"/>
+      <c r="H8" s="110" t="s">
+        <v>404</v>
+      </c>
+      <c r="I8" s="111"/>
       <c r="J8" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="78"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="64">
         <v>0.35</v>
       </c>
-      <c r="H9" s="85" t="s">
-        <v>405</v>
-      </c>
-      <c r="I9" s="86"/>
+      <c r="H9" s="112" t="s">
+        <v>404</v>
+      </c>
+      <c r="I9" s="113"/>
       <c r="J9" s="14">
         <v>14</v>
       </c>
@@ -7323,23 +7358,23 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="4:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="114" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>408</v>
       </c>
       <c r="G11" s="69">
         <v>0.25</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J11" s="22">
         <v>14</v>
@@ -7347,8 +7382,8 @@
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="4:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="24"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -7356,83 +7391,83 @@
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="91" t="s">
-        <v>410</v>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="75" t="s">
+        <v>409</v>
       </c>
       <c r="G13" s="26">
         <v>0.25</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J13" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="93">
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="117">
         <v>0.35</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="I14" s="94" t="s">
-        <v>405</v>
-      </c>
-      <c r="J14" s="97">
+        <v>408</v>
+      </c>
+      <c r="I14" s="118" t="s">
+        <v>404</v>
+      </c>
+      <c r="J14" s="94">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="93"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="117"/>
       <c r="H15" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="98"/>
+        <v>410</v>
+      </c>
+      <c r="I15" s="119"/>
+      <c r="J15" s="95"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="99">
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="96">
         <v>0.38</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="I16" s="101" t="s">
-        <v>405</v>
-      </c>
-      <c r="J16" s="103">
+        <v>408</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="J16" s="100">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="100"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="I17" s="102"/>
-      <c r="J17" s="104"/>
+        <v>410</v>
+      </c>
+      <c r="I17" s="99"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -7440,26 +7475,26 @@
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="88"/>
-      <c r="E19" s="92"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G19" s="34">
         <v>0.25</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J19" s="36">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="89"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -7468,57 +7503,57 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="88"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="102" t="s">
         <v>413</v>
-      </c>
-      <c r="F21" s="105" t="s">
-        <v>414</v>
       </c>
       <c r="G21" s="26">
         <v>0.25</v>
       </c>
-      <c r="H21" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="I21" s="96"/>
+      <c r="H21" s="105" t="s">
+        <v>414</v>
+      </c>
+      <c r="I21" s="105"/>
       <c r="J21" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="106"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="58">
         <v>0.35</v>
       </c>
-      <c r="H22" s="108" t="s">
-        <v>415</v>
-      </c>
-      <c r="I22" s="108"/>
+      <c r="H22" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="I22" s="106"/>
       <c r="J22" s="37">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="107"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="71">
         <v>0.38</v>
       </c>
-      <c r="H23" s="109" t="s">
-        <v>415</v>
-      </c>
-      <c r="I23" s="109"/>
+      <c r="H23" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="I23" s="107"/>
       <c r="J23" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="39"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -7526,33 +7561,33 @@
       <c r="J24" s="40"/>
     </row>
     <row r="25" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="105" t="s">
-        <v>416</v>
+      <c r="D25" s="115"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="102" t="s">
+        <v>415</v>
       </c>
       <c r="G25" s="26">
         <v>0.35</v>
       </c>
-      <c r="H25" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="I25" s="96"/>
+      <c r="H25" s="105" t="s">
+        <v>414</v>
+      </c>
+      <c r="I25" s="105"/>
       <c r="J25" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="90"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="107"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="71">
         <v>0.38</v>
       </c>
-      <c r="H26" s="109" t="s">
-        <v>415</v>
-      </c>
-      <c r="I26" s="109"/>
+      <c r="H26" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="I26" s="107"/>
       <c r="J26" s="38">
         <v>14</v>
       </c>
@@ -7567,55 +7602,55 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="E28" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="F28" s="79" t="s">
         <v>418</v>
-      </c>
-      <c r="F28" s="111" t="s">
-        <v>419</v>
       </c>
       <c r="G28" s="62">
         <v>0.25</v>
       </c>
-      <c r="H28" s="79" t="s">
-        <v>415</v>
-      </c>
-      <c r="I28" s="113"/>
+      <c r="H28" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="I28" s="82"/>
       <c r="J28" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="110"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="43">
         <v>0.35</v>
       </c>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
       <c r="J29" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="112"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="61">
         <v>0.38</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="117"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
       <c r="J30" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="89"/>
-      <c r="E31" s="110"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="47"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -7623,50 +7658,50 @@
       <c r="J31" s="49"/>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="111" t="s">
-        <v>416</v>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="79" t="s">
+        <v>415</v>
       </c>
       <c r="G32" s="62">
         <v>0.25</v>
       </c>
-      <c r="H32" s="79" t="s">
-        <v>420</v>
-      </c>
-      <c r="I32" s="113"/>
+      <c r="H32" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="I32" s="82"/>
       <c r="J32" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="110"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="43">
         <v>0.35</v>
       </c>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="89"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="112"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="80"/>
       <c r="G34" s="61">
         <v>0.38</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="117"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="86"/>
       <c r="J34" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="110"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
       <c r="G35" s="48"/>
@@ -7675,53 +7710,53 @@
       <c r="J35" s="49"/>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D36" s="89"/>
-      <c r="E36" s="91" t="s">
+      <c r="D36" s="76"/>
+      <c r="E36" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="F36" s="79" t="s">
         <v>421</v>
-      </c>
-      <c r="F36" s="111" t="s">
-        <v>422</v>
       </c>
       <c r="G36" s="62">
         <v>0.25</v>
       </c>
-      <c r="H36" s="79" t="s">
-        <v>405</v>
-      </c>
-      <c r="I36" s="113"/>
+      <c r="H36" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="I36" s="82"/>
       <c r="J36" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="110"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
       <c r="G37" s="43">
         <v>0.35</v>
       </c>
-      <c r="H37" s="114"/>
-      <c r="I37" s="115"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="112"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="61">
         <v>0.38</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="117"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="86"/>
       <c r="J38" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="89"/>
-      <c r="E39" s="110"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="47"/>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
@@ -7729,51 +7764,51 @@
       <c r="J39" s="49"/>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="111" t="s">
-        <v>423</v>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="79" t="s">
+        <v>422</v>
       </c>
       <c r="G40" s="62">
         <v>0.25</v>
       </c>
-      <c r="H40" s="79" t="s">
-        <v>405</v>
-      </c>
-      <c r="I40" s="113"/>
+      <c r="H40" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="I40" s="82"/>
       <c r="J40" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="110"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77"/>
       <c r="G41" s="43">
         <v>0.35</v>
       </c>
-      <c r="H41" s="114"/>
-      <c r="I41" s="115"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="44">
         <v>14</v>
       </c>
       <c r="O41" s="50"/>
     </row>
     <row r="42" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="89"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="112"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="61">
         <v>0.38</v>
       </c>
-      <c r="H42" s="116"/>
-      <c r="I42" s="117"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="86"/>
       <c r="J42" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="110"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="47"/>
       <c r="F43" s="47"/>
       <c r="G43" s="48"/>
@@ -7782,33 +7817,33 @@
       <c r="J43" s="49"/>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D44" s="89"/>
-      <c r="E44" s="111" t="s">
+      <c r="D44" s="76"/>
+      <c r="E44" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="F44" s="87" t="s">
         <v>424</v>
-      </c>
-      <c r="F44" s="118" t="s">
-        <v>425</v>
       </c>
       <c r="G44" s="41">
         <v>0.25</v>
       </c>
-      <c r="H44" s="79" t="s">
-        <v>426</v>
-      </c>
-      <c r="I44" s="80"/>
+      <c r="H44" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="I44" s="89"/>
       <c r="J44" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="92"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="119"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="88"/>
       <c r="G45" s="45">
         <v>0.38</v>
       </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="82"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="91"/>
       <c r="J45" s="46">
         <v>1</v>
       </c>
@@ -7823,55 +7858,55 @@
       <c r="J46" s="53"/>
     </row>
     <row r="47" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="91" t="s">
-        <v>427</v>
-      </c>
-      <c r="E47" s="91" t="s">
+      <c r="D47" s="75" t="s">
+        <v>426</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="F47" s="79" t="s">
         <v>418</v>
-      </c>
-      <c r="F47" s="111" t="s">
-        <v>419</v>
       </c>
       <c r="G47" s="62">
         <v>0.25</v>
       </c>
-      <c r="H47" s="79" t="s">
-        <v>420</v>
-      </c>
-      <c r="I47" s="113"/>
+      <c r="H47" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="I47" s="82"/>
       <c r="J47" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="110"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
       <c r="G48" s="43">
         <v>0.35</v>
       </c>
-      <c r="H48" s="114"/>
-      <c r="I48" s="115"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
       <c r="J48" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="112"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="80"/>
       <c r="G49" s="61">
         <v>0.38</v>
       </c>
-      <c r="H49" s="116"/>
-      <c r="I49" s="117"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="86"/>
       <c r="J49" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="89"/>
-      <c r="E50" s="110"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
       <c r="F50" s="47"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
@@ -7879,50 +7914,50 @@
       <c r="J50" s="49"/>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="111" t="s">
-        <v>416</v>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="79" t="s">
+        <v>415</v>
       </c>
       <c r="G51" s="62">
         <v>0.25</v>
       </c>
-      <c r="H51" s="79" t="s">
-        <v>420</v>
-      </c>
-      <c r="I51" s="113"/>
+      <c r="H51" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="I51" s="82"/>
       <c r="J51" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="110"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
       <c r="G52" s="43">
         <v>0.35</v>
       </c>
-      <c r="H52" s="114"/>
-      <c r="I52" s="115"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="84"/>
       <c r="J52" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="89"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="112"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="80"/>
       <c r="G53" s="61">
         <v>0.38</v>
       </c>
-      <c r="H53" s="116"/>
-      <c r="I53" s="117"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="110"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="47"/>
       <c r="F54" s="47"/>
       <c r="G54" s="48"/>
@@ -7931,53 +7966,53 @@
       <c r="J54" s="49"/>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="89"/>
-      <c r="E55" s="91" t="s">
+      <c r="D55" s="76"/>
+      <c r="E55" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="F55" s="79" t="s">
         <v>421</v>
-      </c>
-      <c r="F55" s="111" t="s">
-        <v>422</v>
       </c>
       <c r="G55" s="62">
         <v>0.25</v>
       </c>
-      <c r="H55" s="79" t="s">
-        <v>405</v>
-      </c>
-      <c r="I55" s="80"/>
+      <c r="H55" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="I55" s="89"/>
       <c r="J55" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="110"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
       <c r="G56" s="43">
         <v>0.35</v>
       </c>
-      <c r="H56" s="120"/>
-      <c r="I56" s="121"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="93"/>
       <c r="J56" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="112"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="80"/>
       <c r="G57" s="61">
         <v>0.38</v>
       </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="82"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
       <c r="J57" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="89"/>
-      <c r="E58" s="110"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="77"/>
       <c r="F58" s="47"/>
       <c r="G58" s="48"/>
       <c r="H58" s="48"/>
@@ -7985,50 +8020,50 @@
       <c r="J58" s="49"/>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="111" t="s">
-        <v>428</v>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="79" t="s">
+        <v>427</v>
       </c>
       <c r="G59" s="62">
         <v>0.25</v>
       </c>
-      <c r="H59" s="79" t="s">
-        <v>405</v>
-      </c>
-      <c r="I59" s="80"/>
+      <c r="H59" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="I59" s="89"/>
       <c r="J59" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="110"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
       <c r="G60" s="43">
         <v>0.35</v>
       </c>
-      <c r="H60" s="120"/>
-      <c r="I60" s="121"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="93"/>
       <c r="J60" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D61" s="89"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="112"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="80"/>
       <c r="G61" s="61">
         <v>0.38</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="82"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="91"/>
       <c r="J61" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="89"/>
+      <c r="D62" s="76"/>
       <c r="E62" s="54"/>
       <c r="F62" s="47"/>
       <c r="G62" s="48"/>
@@ -8037,54 +8072,95 @@
       <c r="J62" s="49"/>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D63" s="89"/>
-      <c r="E63" s="111" t="s">
+      <c r="D63" s="76"/>
+      <c r="E63" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" s="87" t="s">
         <v>424</v>
-      </c>
-      <c r="F63" s="118" t="s">
-        <v>425</v>
       </c>
       <c r="G63" s="62">
         <v>0.25</v>
       </c>
-      <c r="H63" s="79" t="s">
-        <v>426</v>
-      </c>
-      <c r="I63" s="80"/>
+      <c r="H63" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="I63" s="89"/>
       <c r="J63" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="92"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="119"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="88"/>
       <c r="G64" s="61">
         <v>0.38</v>
       </c>
-      <c r="H64" s="81"/>
-      <c r="I64" s="82"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="91"/>
       <c r="J64" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="6:6" ht="21" x14ac:dyDescent="0.4">
       <c r="F67" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="6:6" ht="21" x14ac:dyDescent="0.4">
       <c r="F68" s="56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="6:6" ht="18" x14ac:dyDescent="0.35">
       <c r="F70" s="57" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D11:D26"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D28:D45"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="H28:I30"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="H32:I34"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="H36:I38"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="H40:I42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:I45"/>
     <mergeCell ref="D47:D64"/>
     <mergeCell ref="E47:E53"/>
     <mergeCell ref="F47:F49"/>
@@ -8099,47 +8175,6 @@
     <mergeCell ref="H55:I57"/>
     <mergeCell ref="F59:F61"/>
     <mergeCell ref="H59:I61"/>
-    <mergeCell ref="D28:D45"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="H28:I30"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="H32:I34"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="H36:I38"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="H40:I42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D11:D26"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8151,8 +8186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G447"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E437" sqref="E437"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8267,7 +8302,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B14">
         <v>1.528</v>
@@ -8323,7 +8358,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21">
         <v>1.74</v>
@@ -8331,7 +8366,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22">
         <v>1.732</v>
@@ -8339,7 +8374,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23">
         <v>1.7070000000000001</v>
@@ -8347,7 +8382,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B24">
         <v>1.56</v>
@@ -8355,7 +8390,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B25">
         <v>1.748</v>
@@ -8363,7 +8398,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B26">
         <v>1.7589999999999999</v>
@@ -8371,7 +8406,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B27">
         <v>1.7509999999999999</v>
@@ -8379,7 +8414,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B28" s="7">
         <v>0.70699999999999996</v>
@@ -8387,7 +8422,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" s="7">
         <v>1.4059999999999999</v>
@@ -8395,7 +8430,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B30" s="7">
         <v>1.359</v>
@@ -8403,7 +8438,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B31" s="7">
         <v>0.61599999999999999</v>
@@ -8411,7 +8446,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B32" s="7">
         <v>1.5309999999999999</v>
@@ -8419,7 +8454,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B33" s="7">
         <v>1.5289999999999999</v>
@@ -8427,7 +8462,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B34" s="7">
         <v>1.5289999999999999</v>
@@ -8801,7 +8836,7 @@
         <v>2.8860000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -8809,7 +8844,7 @@
         <v>2.8980000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -8817,7 +8852,7 @@
         <v>2.9009999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -8825,15 +8860,15 @@
         <v>2.8580000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="7">
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>67</v>
       </c>
@@ -8841,7 +8876,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>68</v>
       </c>
@@ -8849,7 +8884,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>69</v>
       </c>
@@ -8857,7 +8892,7 @@
         <v>3.2130000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>70</v>
       </c>
@@ -8865,7 +8900,7 @@
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>71</v>
       </c>
@@ -8873,7 +8908,7 @@
         <v>1.276</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>72</v>
       </c>
@@ -8881,7 +8916,7 @@
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>73</v>
       </c>
@@ -8889,7 +8924,7 @@
         <v>3.085</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>74</v>
       </c>
@@ -8897,18 +8932,15 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B93" s="7">
         <v>2.9990000000000001</v>
       </c>
-      <c r="C93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>76</v>
       </c>
@@ -8916,7 +8948,7 @@
         <v>3.214</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>77</v>
       </c>
@@ -8924,7 +8956,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>78</v>
       </c>
@@ -9180,7 +9212,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B126" s="3">
         <v>0.251</v>
@@ -9189,7 +9221,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B127" s="3">
         <v>0.24399999999999999</v>
@@ -9198,7 +9230,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B128" s="3">
         <v>0.252</v>
@@ -9206,7 +9238,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B129" s="3">
         <v>0.24</v>
@@ -9214,7 +9246,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130" s="3">
         <v>0.252</v>
@@ -9222,7 +9254,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B131" s="3">
         <v>0.23699999999999999</v>
@@ -9230,7 +9262,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B132" s="3">
         <v>0.252</v>
@@ -9238,7 +9270,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B133" s="3">
         <v>0.23400000000000001</v>
@@ -9246,7 +9278,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B134" s="3">
         <v>0.23</v>
@@ -9254,7 +9286,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B135" s="3">
         <v>0.23799999999999999</v>
@@ -9262,7 +9294,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B136" s="3">
         <v>0.251</v>
@@ -9270,7 +9302,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B137" s="3">
         <v>0.252</v>
@@ -9278,7 +9310,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B138" s="3">
         <v>0.252</v>
@@ -9286,7 +9318,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B139" s="3">
         <v>0.252</v>
@@ -9294,7 +9326,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B140" s="7">
         <v>0.246</v>
@@ -9302,7 +9334,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B141" s="7">
         <v>0.23899999999999999</v>
@@ -9310,7 +9342,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B142" s="7">
         <v>0.247</v>
@@ -9318,7 +9350,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B143" s="7">
         <v>0.23499999999999999</v>
@@ -9326,7 +9358,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B144" s="7">
         <v>0.247</v>
@@ -9334,7 +9366,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B145" s="7">
         <v>0.23300000000000001</v>
@@ -9342,7 +9374,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B146" s="7">
         <v>0.245</v>
@@ -9350,7 +9382,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B147" s="7">
         <v>0.23</v>
@@ -9358,7 +9390,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B148" s="7">
         <v>0.22700000000000001</v>
@@ -9366,7 +9398,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149" s="7">
         <v>0.23499999999999999</v>
@@ -9374,7 +9406,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B150" s="7">
         <v>0.247</v>
@@ -9382,7 +9414,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B151" s="7">
         <v>0.247</v>
@@ -9390,7 +9422,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B152" s="7">
         <v>0.247</v>
@@ -9398,7 +9430,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B153" s="7">
         <v>0.247</v>
@@ -9406,7 +9438,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B154" s="3">
         <v>0.27100000000000002</v>
@@ -9414,7 +9446,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B155" s="3">
         <v>0.26300000000000001</v>
@@ -9422,7 +9454,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B156" s="3">
         <v>0.27400000000000002</v>
@@ -9430,7 +9462,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B157" s="3">
         <v>0.25800000000000001</v>
@@ -9438,7 +9470,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B158" s="3">
         <v>0.27400000000000002</v>
@@ -9446,7 +9478,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B159" s="3">
         <v>0.25700000000000001</v>
@@ -9454,7 +9486,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B160" s="3">
         <v>0.27400000000000002</v>
@@ -9462,7 +9494,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B161" s="3">
         <v>0.254</v>
@@ -9470,7 +9502,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B162" s="3">
         <v>0.25</v>
@@ -9478,7 +9510,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B163" s="3">
         <v>0.26100000000000001</v>
@@ -9486,7 +9518,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B164" s="3">
         <v>0.27400000000000002</v>
@@ -9494,7 +9526,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B165" s="3">
         <v>0.27500000000000002</v>
@@ -9502,7 +9534,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B166" s="3">
         <v>0.27500000000000002</v>
@@ -9510,7 +9542,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B167" s="3">
         <v>0.27400000000000002</v>
@@ -9518,7 +9550,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B168" s="7">
         <v>0.26700000000000002</v>
@@ -9526,7 +9558,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B169" s="7">
         <v>0.25800000000000001</v>
@@ -9534,7 +9566,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B170" s="7">
         <v>0.26800000000000002</v>
@@ -9542,7 +9574,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B171" s="7">
         <v>0.254</v>
@@ -9550,7 +9582,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B172" s="7">
         <v>0.26800000000000002</v>
@@ -9558,7 +9590,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B173" s="7">
         <v>0.251</v>
@@ -9566,7 +9598,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B174" s="7">
         <v>0.26800000000000002</v>
@@ -9574,7 +9606,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B175" s="7">
         <v>0.25</v>
@@ -9582,7 +9614,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B176" s="7">
         <v>0.247</v>
@@ -9590,7 +9622,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B177" s="7">
         <v>0.25600000000000001</v>
@@ -9598,7 +9630,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B178" s="7">
         <v>0.26900000000000002</v>
@@ -9606,7 +9638,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B179" s="7">
         <v>0.26900000000000002</v>
@@ -9614,7 +9646,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B180" s="7">
         <v>0.26900000000000002</v>
@@ -9622,7 +9654,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B181" s="7">
         <v>0.26900000000000002</v>
@@ -9630,7 +9662,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B182" s="3">
         <v>0.26800000000000002</v>
@@ -9638,7 +9670,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B183" s="3">
         <v>0.26800000000000002</v>
@@ -9646,7 +9678,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B184" s="3">
         <v>0.26700000000000002</v>
@@ -9654,7 +9686,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B185" s="3">
         <v>0.26900000000000002</v>
@@ -9662,7 +9694,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B186" s="3">
         <v>0.26700000000000002</v>
@@ -9670,7 +9702,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B187" s="3">
         <v>0.25700000000000001</v>
@@ -9678,7 +9710,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B188" s="3">
         <v>0.26700000000000002</v>
@@ -9686,7 +9718,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B189" s="3">
         <v>0.25600000000000001</v>
@@ -9694,7 +9726,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B190" s="3">
         <v>0.251</v>
@@ -9702,7 +9734,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B191" s="3">
         <v>0.24399999999999999</v>
@@ -9710,7 +9742,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B192" s="3">
         <v>0.247</v>
@@ -9718,7 +9750,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B193" s="3">
         <v>0.26600000000000001</v>
@@ -9726,7 +9758,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B194" s="3">
         <v>0.26700000000000002</v>
@@ -9734,7 +9766,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B195" s="3">
         <v>0.26700000000000002</v>
@@ -9742,7 +9774,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B196" s="7">
         <v>0.13200000000000001</v>
@@ -9750,7 +9782,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B197" s="7">
         <v>0.13200000000000001</v>
@@ -9758,7 +9790,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B198" s="7">
         <v>0.13200000000000001</v>
@@ -9766,7 +9798,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B199" s="7">
         <v>0.13200000000000001</v>
@@ -9774,7 +9806,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B200" s="7">
         <v>0.13100000000000001</v>
@@ -9782,7 +9814,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B201" s="7">
         <v>0.129</v>
@@ -9790,7 +9822,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B202" s="7">
         <v>0.13100000000000001</v>
@@ -9798,7 +9830,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B203" s="7">
         <v>0.126</v>
@@ -9806,7 +9838,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B204" s="7">
         <v>0.124</v>
@@ -9814,7 +9846,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B205" s="7">
         <v>0.121</v>
@@ -9822,7 +9854,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B206" s="7">
         <v>0.123</v>
@@ -9830,7 +9862,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B207" s="7">
         <v>0.13200000000000001</v>
@@ -9838,7 +9870,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B208" s="7">
         <v>0.13300000000000001</v>
@@ -9846,7 +9878,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B209" s="7">
         <v>0.26300000000000001</v>
@@ -9854,7 +9886,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B210" s="3">
         <v>0.221</v>
@@ -9862,7 +9894,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B211" s="3">
         <v>0.221</v>
@@ -9870,7 +9902,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B212" s="3">
         <v>0.221</v>
@@ -9878,7 +9910,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B213" s="3">
         <v>0.221</v>
@@ -9886,7 +9918,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B214" s="3">
         <v>0.221</v>
@@ -9894,7 +9926,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B215" s="3">
         <v>0.215</v>
@@ -9902,7 +9934,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B216" s="3">
         <v>0.221</v>
@@ -9910,7 +9942,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B217" s="3">
         <v>0.21299999999999999</v>
@@ -9918,7 +9950,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B218" s="3">
         <v>0.20899999999999999</v>
@@ -9926,7 +9958,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B219" s="3">
         <v>0.20599999999999999</v>
@@ -9934,7 +9966,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B220" s="3">
         <v>0.21</v>
@@ -9942,7 +9974,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B221" s="3">
         <v>0.22</v>
@@ -9950,7 +9982,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B222" s="3">
         <v>0.221</v>
@@ -9958,7 +9990,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B223" s="3">
         <v>0.222</v>
@@ -9966,7 +9998,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B224" s="7">
         <v>0.217</v>
@@ -9974,7 +10006,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B225" s="7">
         <v>0.11</v>
@@ -9982,7 +10014,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B226" s="7">
         <v>0.217</v>
@@ -9990,7 +10022,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B227" s="7">
         <v>0.217</v>
@@ -9998,7 +10030,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B228" s="7">
         <v>0.217</v>
@@ -10006,7 +10038,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B229" s="7">
         <v>0.21099999999999999</v>
@@ -10014,7 +10046,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B230" s="7">
         <v>0.217</v>
@@ -10022,7 +10054,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B231" s="7">
         <v>0.20899999999999999</v>
@@ -10030,7 +10062,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B232" s="7">
         <v>0.20499999999999999</v>
@@ -10038,7 +10070,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B233" s="7">
         <v>0.20100000000000001</v>
@@ -10046,7 +10078,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B234" s="7">
         <v>0.20699999999999999</v>
@@ -10054,7 +10086,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B235" s="7">
         <v>0.218</v>
@@ -10062,18 +10094,18 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B236" s="7">
         <v>0.218</v>
       </c>
       <c r="G236" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B237" s="7">
         <v>0.218</v>
@@ -10081,7 +10113,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B238" s="3">
         <v>1.004</v>
@@ -10089,7 +10121,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B239" s="3">
         <v>1.425</v>
@@ -10097,7 +10129,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B240" s="3">
         <v>1.389</v>
@@ -10105,7 +10137,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B241" s="3">
         <v>1.115</v>
@@ -10113,7 +10145,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B242" s="3">
         <v>1.3819999999999999</v>
@@ -10121,7 +10153,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B243" s="3">
         <v>2.649</v>
@@ -10129,7 +10161,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B244" s="3">
         <v>1.5820000000000001</v>
@@ -10137,7 +10169,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B245" s="3">
         <v>3.081</v>
@@ -10145,7 +10177,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B246" s="3">
         <v>1.8879999999999999</v>
@@ -10153,7 +10185,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B247" s="3">
         <v>1.044</v>
@@ -10161,7 +10193,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B248" s="3">
         <v>0.85499999999999998</v>
@@ -10169,7 +10201,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B249" s="3">
         <v>1.347</v>
@@ -10180,7 +10212,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B250" s="7">
         <v>0.30099999999999999</v>
@@ -10188,7 +10220,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B251" s="7">
         <v>0.51200000000000001</v>
@@ -10196,7 +10228,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B252" s="7">
         <v>0.51700000000000002</v>
@@ -10204,7 +10236,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B253" s="7">
         <v>0.52500000000000002</v>
@@ -10212,7 +10244,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B254" s="7">
         <v>0.50700000000000001</v>
@@ -10220,7 +10252,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B255" s="7">
         <v>0.51900000000000002</v>
@@ -10228,7 +10260,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B256" s="7">
         <v>0.45300000000000001</v>
@@ -10236,7 +10268,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B257" s="7">
         <v>0.51300000000000001</v>
@@ -10244,7 +10276,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B258" s="7">
         <v>0.624</v>
@@ -10252,7 +10284,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B259" s="7">
         <v>0.628</v>
@@ -10260,7 +10292,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B260" s="7">
         <v>0.49199999999999999</v>
@@ -10268,7 +10300,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B261" s="7">
         <v>0.49099999999999999</v>
@@ -10276,7 +10308,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B262" s="7">
         <v>0.497</v>
@@ -10284,7 +10316,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B263" s="7">
         <v>0.48299999999999998</v>
@@ -10292,7 +10324,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B264" s="3">
         <v>0.20100000000000001</v>
@@ -10300,7 +10332,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B265" s="3">
         <v>0.20100000000000001</v>
@@ -10308,7 +10340,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B266" s="3">
         <v>0.20100000000000001</v>
@@ -10316,7 +10348,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B267" s="3">
         <v>0.20100000000000001</v>
@@ -10324,7 +10356,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B268" s="3">
         <v>0.20200000000000001</v>
@@ -10332,7 +10364,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B269" s="3">
         <v>0.20100000000000001</v>
@@ -10340,7 +10372,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B270" s="3">
         <v>0.2</v>
@@ -10348,7 +10380,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B271" s="3">
         <v>0.2</v>
@@ -10356,7 +10388,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B272" s="3">
         <v>0.19900000000000001</v>
@@ -10364,7 +10396,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B273" s="3">
         <v>0.2</v>
@@ -10372,7 +10404,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B274" s="3">
         <v>0.2</v>
@@ -10380,7 +10412,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B275" s="3">
         <v>0.19900000000000001</v>
@@ -10388,7 +10420,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B276" s="3">
         <v>0.19900000000000001</v>
@@ -10396,7 +10428,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B277" s="3">
         <v>0.2</v>
@@ -10404,7 +10436,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B278" s="7">
         <v>0.10299999999999999</v>
@@ -10412,7 +10444,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B279" s="7">
         <v>0.10299999999999999</v>
@@ -10420,7 +10452,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B280" s="7">
         <v>0.10299999999999999</v>
@@ -10428,7 +10460,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B281" s="7">
         <v>0.10299999999999999</v>
@@ -10436,7 +10468,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B282" s="7">
         <v>0.10299999999999999</v>
@@ -10444,7 +10476,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B283" s="7">
         <v>0.10299999999999999</v>
@@ -10452,7 +10484,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B284" s="7">
         <v>0.10299999999999999</v>
@@ -10460,7 +10492,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B285" s="7">
         <v>0.10299999999999999</v>
@@ -10468,7 +10500,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B286" s="7">
         <v>0.10299999999999999</v>
@@ -10476,7 +10508,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B287" s="7">
         <v>0.10299999999999999</v>
@@ -10484,7 +10516,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B288" s="7">
         <v>0.10299999999999999</v>
@@ -10492,7 +10524,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B289" s="7">
         <v>0.10199999999999999</v>
@@ -10500,7 +10532,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B290" s="7">
         <v>0.10299999999999999</v>
@@ -10508,7 +10540,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B291" s="7">
         <v>0.10299999999999999</v>
@@ -10516,7 +10548,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B292" s="3">
         <v>0.20399999999999999</v>
@@ -10524,7 +10556,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B293" s="3">
         <v>0.20499999999999999</v>
@@ -10532,7 +10564,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B294" s="3">
         <v>0.20300000000000001</v>
@@ -10540,7 +10572,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B295" s="3">
         <v>0.20499999999999999</v>
@@ -10548,7 +10580,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B296" s="3">
         <v>0.20300000000000001</v>
@@ -10556,7 +10588,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B297" s="3">
         <v>0.20499999999999999</v>
@@ -10564,7 +10596,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B298" s="3">
         <v>0.20300000000000001</v>
@@ -10572,7 +10604,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B299" s="3">
         <v>0.20499999999999999</v>
@@ -10580,7 +10612,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B300" s="3">
         <v>0.20399999999999999</v>
@@ -10588,7 +10620,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B301">
         <v>0.20399999999999999</v>
@@ -10596,7 +10628,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B302">
         <v>0.20399999999999999</v>
@@ -10604,7 +10636,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B303">
         <v>0.20399999999999999</v>
@@ -10612,7 +10644,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B304">
         <v>0.20399999999999999</v>
@@ -10620,7 +10652,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B305">
         <v>0.20399999999999999</v>
@@ -10628,7 +10660,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -10636,7 +10668,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B307" s="7">
         <v>0.29499999999999998</v>
@@ -10644,7 +10676,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B308" s="7">
         <v>0.29399999999999998</v>
@@ -10652,7 +10684,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B309" s="7">
         <v>0.30199999999999999</v>
@@ -10660,7 +10692,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B310" s="7">
         <v>0.29399999999999998</v>
@@ -10668,7 +10700,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B311" s="7">
         <v>0.29499999999999998</v>
@@ -10676,7 +10708,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B312" s="7">
         <v>0.29299999999999998</v>
@@ -10684,7 +10716,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B313" s="7">
         <v>0.29399999999999998</v>
@@ -10692,7 +10724,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B314" s="7">
         <v>0.29299999999999998</v>
@@ -10700,7 +10732,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B315" s="7">
         <v>0.191</v>
@@ -10708,7 +10740,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B316" s="7">
         <v>0.19</v>
@@ -10716,7 +10748,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B317" s="7">
         <v>0.28999999999999998</v>
@@ -10724,7 +10756,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B318" s="7">
         <v>0.29199999999999998</v>
@@ -10732,7 +10764,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B319" s="7">
         <v>0.30099999999999999</v>
@@ -10740,7 +10772,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B320" s="7">
         <v>0.192</v>
@@ -10748,7 +10780,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B321" s="3">
         <v>0.192</v>
@@ -10756,7 +10788,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B322" s="3">
         <v>0.191</v>
@@ -10764,7 +10796,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B323" s="3">
         <v>0.192</v>
@@ -10772,7 +10804,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B324" s="3">
         <v>0.192</v>
@@ -10780,7 +10812,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B325" s="3">
         <v>0.192</v>
@@ -10788,7 +10820,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B326" s="3">
         <v>0.191</v>
@@ -10796,7 +10828,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B327" s="3">
         <v>0.192</v>
@@ -10804,7 +10836,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B328" s="3">
         <v>0.191</v>
@@ -10812,7 +10844,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B329" s="3">
         <v>0.19</v>
@@ -10820,7 +10852,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B330" s="3">
         <v>0.19</v>
@@ -10828,7 +10860,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B331">
         <v>0.17100000000000001</v>
@@ -10836,7 +10868,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B332">
         <v>0.191</v>
@@ -10844,7 +10876,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B333">
         <v>0.192</v>
@@ -10852,7 +10884,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B334">
         <v>0.192</v>
@@ -10860,7 +10892,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B335" s="7">
         <v>0.189</v>
@@ -10868,7 +10900,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B336" s="7">
         <v>0.188</v>
@@ -10876,7 +10908,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B337" s="7">
         <v>0.188</v>
@@ -10884,7 +10916,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B338" s="7">
         <v>0.188</v>
@@ -10892,7 +10924,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B339" s="7">
         <v>0.188</v>
@@ -10900,7 +10932,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B340" s="7">
         <v>0.188</v>
@@ -10908,7 +10940,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B341" s="7">
         <v>0.188</v>
@@ -10916,7 +10948,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B342" s="7">
         <v>0.188</v>
@@ -10924,7 +10956,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B343" s="7">
         <v>0.188</v>
@@ -10932,7 +10964,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B344" s="7">
         <v>0.17199999999999999</v>
@@ -10940,7 +10972,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B345" s="7">
         <v>0.17199999999999999</v>
@@ -10948,7 +10980,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B346" s="7">
         <v>0.17199999999999999</v>
@@ -10956,7 +10988,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B347" s="7">
         <v>0.188</v>
@@ -10964,7 +10996,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B348" s="7">
         <v>0.188</v>
@@ -10972,7 +11004,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B349" s="3">
         <v>3.0449999999999999</v>
@@ -10981,7 +11013,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B350" s="3">
         <v>3.4180000000000001</v>
@@ -10989,7 +11021,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B351" s="7">
         <v>0.23499999999999999</v>
@@ -10998,7 +11030,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B352" s="7">
         <v>0.23499999999999999</v>
@@ -11007,7 +11039,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B353" s="7">
         <v>0.23499999999999999</v>
@@ -11015,7 +11047,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B354" s="7">
         <v>0.23499999999999999</v>
@@ -11023,7 +11055,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B355" s="7">
         <v>0.23499999999999999</v>
@@ -11031,7 +11063,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B356" s="7">
         <v>1.1850000000000001</v>
@@ -11039,7 +11071,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B357" s="7">
         <v>0.23499999999999999</v>
@@ -11047,7 +11079,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B358" s="7">
         <v>0.215</v>
@@ -11055,7 +11087,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B359" s="7">
         <v>1.18</v>
@@ -11063,7 +11095,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B360" s="7">
         <v>1.18</v>
@@ -11071,7 +11103,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B361" s="7">
         <v>0.95499999999999996</v>
@@ -11079,7 +11111,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B362" s="7">
         <v>0.23300000000000001</v>
@@ -11087,7 +11119,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B363" s="7">
         <v>0.95899999999999996</v>
@@ -11095,7 +11127,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B364" s="7">
         <v>0.96699999999999997</v>
@@ -11103,7 +11135,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B365" s="3">
         <v>0.60299999999999998</v>
@@ -11111,7 +11143,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B366" s="3">
         <v>1.006</v>
@@ -11119,7 +11151,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B367" s="3">
         <v>0.20899999999999999</v>
@@ -11127,7 +11159,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B368" s="3">
         <v>0.189</v>
@@ -11135,7 +11167,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B369" s="3">
         <v>0.20899999999999999</v>
@@ -11143,7 +11175,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B370" s="3">
         <v>0.21</v>
@@ -11151,7 +11183,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B371" s="3">
         <v>0.20799999999999999</v>
@@ -11159,7 +11191,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B372" s="3">
         <v>1.048</v>
@@ -11167,7 +11199,7 @@
     </row>
     <row r="373" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B373" s="3">
         <v>1.0680000000000001</v>
@@ -11175,7 +11207,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B374" s="3">
         <v>0.189</v>
@@ -11183,7 +11215,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B375" s="3">
         <v>0.86499999999999999</v>
@@ -11191,7 +11223,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B376" s="3">
         <v>0.188</v>
@@ -11199,7 +11231,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B377" s="3">
         <v>0.86499999999999999</v>
@@ -11207,7 +11239,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B378" s="3">
         <v>0.86299999999999999</v>
@@ -11215,7 +11247,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B379" s="7">
         <v>0.23499999999999999</v>
@@ -11226,7 +11258,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B380" s="7">
         <v>0.23499999999999999</v>
@@ -11235,7 +11267,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B381" s="7">
         <v>0.23499999999999999</v>
@@ -11244,7 +11276,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B382" s="7">
         <v>0.23499999999999999</v>
@@ -11253,7 +11285,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B383" s="7">
         <v>0.23499999999999999</v>
@@ -11262,7 +11294,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B384" s="7">
         <v>0.23400000000000001</v>
@@ -11271,7 +11303,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B385" s="7">
         <v>0.23499999999999999</v>
@@ -11280,7 +11312,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B386" s="7">
         <v>0.23400000000000001</v>
@@ -11289,7 +11321,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B387" s="7">
         <v>0.23400000000000001</v>
@@ -11298,7 +11330,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B388" s="7">
         <v>0.23300000000000001</v>
@@ -11307,7 +11339,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B389" s="7">
         <v>0.23300000000000001</v>
@@ -11316,7 +11348,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B390" s="7">
         <v>0.23300000000000001</v>
@@ -11325,7 +11357,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B391" s="7">
         <v>0.23300000000000001</v>
@@ -11334,7 +11366,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B392" s="7">
         <v>0.23499999999999999</v>
@@ -11343,7 +11375,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B393" s="3">
         <v>0.20899999999999999</v>
@@ -11354,7 +11386,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B394" s="3">
         <v>0.20899999999999999</v>
@@ -11363,7 +11395,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B395" s="3">
         <v>0.20899999999999999</v>
@@ -11371,7 +11403,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B396" s="3">
         <v>0.20899999999999999</v>
@@ -11379,7 +11411,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B397" s="3">
         <v>0.20899999999999999</v>
@@ -11387,7 +11419,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B398" s="3">
         <v>0.21</v>
@@ -11395,7 +11427,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B399" s="3">
         <v>0.20899999999999999</v>
@@ -11403,7 +11435,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B400" s="3">
         <v>0.21</v>
@@ -11411,7 +11443,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B401" s="3">
         <v>0.21</v>
@@ -11419,7 +11451,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B402" s="3">
         <v>0.21</v>
@@ -11427,7 +11459,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B403" s="3">
         <v>0.21</v>
@@ -11435,7 +11467,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B404" s="3">
         <v>0.20899999999999999</v>
@@ -11443,7 +11475,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B405" s="3">
         <v>0.20899999999999999</v>
@@ -11451,7 +11483,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B406" s="3">
         <v>0.20899999999999999</v>
@@ -11459,7 +11491,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B407" s="7">
         <v>0.52</v>
@@ -11470,7 +11502,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B408" s="7">
         <v>0.51900000000000002</v>
@@ -11478,7 +11510,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B409" s="7">
         <v>0.52100000000000002</v>
@@ -11486,7 +11518,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B410" s="7">
         <v>0.51700000000000002</v>
@@ -11494,7 +11526,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B411" s="7">
         <v>0.52200000000000002</v>
@@ -11502,7 +11534,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B412" s="7">
         <v>0.51800000000000002</v>
@@ -11510,7 +11542,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B413" s="7">
         <v>0.52200000000000002</v>
@@ -11518,7 +11550,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B414" s="7">
         <v>0.51800000000000002</v>
@@ -11526,7 +11558,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B415" s="7">
         <v>0.51700000000000002</v>
@@ -11534,7 +11566,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B416" s="7">
         <v>0.51800000000000002</v>
@@ -11542,7 +11574,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B417" s="7">
         <v>0.51700000000000002</v>
@@ -11550,7 +11582,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B418" s="7">
         <v>0.51600000000000001</v>
@@ -11558,7 +11590,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B419" s="7">
         <v>0.52</v>
@@ -11566,7 +11598,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B420" s="7">
         <v>0.52</v>
@@ -11574,7 +11606,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B421" s="3">
         <v>0.14899999999999999</v>
@@ -11585,7 +11617,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B422" s="3">
         <v>0.29899999999999999</v>
@@ -11593,7 +11625,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B423" s="3">
         <v>0.29499999999999998</v>
@@ -11601,7 +11633,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B424" s="3">
         <v>0.14899999999999999</v>
@@ -11609,7 +11641,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B425" s="3">
         <v>0.29499999999999998</v>
@@ -11617,7 +11649,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B426" s="3">
         <v>0.14899999999999999</v>
@@ -11625,7 +11657,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B427" s="3">
         <v>0.29699999999999999</v>
@@ -11633,7 +11665,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B428" s="3">
         <v>0.29799999999999999</v>
@@ -11641,7 +11673,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B429" s="3">
         <v>0.29399999999999998</v>
@@ -11649,7 +11681,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B430" s="3">
         <v>0.29399999999999998</v>
@@ -11657,7 +11689,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B431" s="3">
         <v>0.29399999999999998</v>
@@ -11665,7 +11697,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B432">
         <v>0.29399999999999998</v>
@@ -11673,7 +11705,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B433">
         <v>0.29399999999999998</v>
@@ -11681,7 +11713,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B434">
         <v>0.29499999999999998</v>
@@ -11815,7 +11847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:XFD31"/>
     </sheetView>
   </sheetViews>
@@ -12212,485 +12244,485 @@
   <sheetData>
     <row r="2" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="70" t="s">
-        <v>400</v>
-      </c>
-      <c r="E2" s="70" t="s">
+      <c r="F2" s="70" t="s">
         <v>435</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="G2" s="70" t="s">
         <v>436</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="E3" t="s">
         <v>439</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>441</v>
-      </c>
-      <c r="G3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" t="s">
         <v>441</v>
-      </c>
-      <c r="G4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" t="s">
         <v>444</v>
       </c>
-      <c r="F5" t="s">
-        <v>445</v>
-      </c>
       <c r="G5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" t="s">
         <v>446</v>
       </c>
-      <c r="F6" t="s">
-        <v>447</v>
-      </c>
       <c r="G6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D9" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" t="s">
         <v>450</v>
       </c>
-      <c r="E9" t="s">
-        <v>451</v>
-      </c>
       <c r="F9" t="s">
+        <v>440</v>
+      </c>
+      <c r="G9" t="s">
         <v>441</v>
-      </c>
-      <c r="G9" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="s">
         <v>440</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>441</v>
-      </c>
-      <c r="G10" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G11" t="s">
         <v>441</v>
-      </c>
-      <c r="G11" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" t="s">
         <v>453</v>
       </c>
-      <c r="D15" s="70" t="s">
-        <v>439</v>
-      </c>
-      <c r="E15" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>454</v>
-      </c>
-      <c r="G15" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F16" t="s">
+        <v>453</v>
+      </c>
+      <c r="G16" t="s">
         <v>454</v>
-      </c>
-      <c r="G16" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F17" t="s">
+        <v>453</v>
+      </c>
+      <c r="G17" t="s">
         <v>454</v>
-      </c>
-      <c r="G17" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" s="70"/>
       <c r="E21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="70"/>
       <c r="E22" t="s">
+        <v>457</v>
+      </c>
+      <c r="F22" t="s">
         <v>458</v>
       </c>
-      <c r="F22" t="s">
-        <v>459</v>
-      </c>
       <c r="G22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="70"/>
       <c r="E23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="70"/>
       <c r="E24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="70"/>
       <c r="E25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="70"/>
       <c r="E26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="70"/>
       <c r="E27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="70"/>
       <c r="E28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="E29" t="s">
         <v>450</v>
       </c>
-      <c r="E29" t="s">
-        <v>451</v>
-      </c>
       <c r="F29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
+        <v>457</v>
+      </c>
+      <c r="F36" t="s">
         <v>458</v>
       </c>
-      <c r="F36" t="s">
-        <v>459</v>
-      </c>
       <c r="G36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/static/documents/Supplemental_data.xlsx
+++ b/static/documents/Supplemental_data.xlsx
@@ -1,37 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blucci\Desktop\piv\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413CFDD5-DD2F-480A-AD68-C5873B926B7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14556" windowHeight="7812" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestChart" sheetId="11" r:id="rId1"/>
     <sheet name="All Data" sheetId="8" r:id="rId2"/>
     <sheet name="Array Descriptions" sheetId="7" r:id="rId3"/>
     <sheet name="SmoothEndwallLimits" sheetId="12" r:id="rId4"/>
+    <sheet name="GeometryParameters" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="diary." localSheetId="2">'Array Descriptions'!$A$1:$C$37</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="191029" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="diary" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="diary" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr sourceFile="C:\Users\blucci\Documents\MATLAB\diary." delimited="0">
       <textFields count="3">
         <textField/>
@@ -2171,7 +2179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3389,46 +3397,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3440,10 +3421,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3479,55 +3496,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -6771,7 +6779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6809,7 +6823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6853,7 +6873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6891,7 +6917,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6929,7 +6961,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6955,8 +6993,57 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59EA1B0-10CC-4A91-A5FC-BB5DDE3B6793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="4693920" cy="2983152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diary." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="diary." connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7221,10 +7308,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="D46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -7256,51 +7343,51 @@
       <c r="D4" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="F4" s="121"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="H4" s="120" t="s">
+      <c r="H4" s="75" t="s">
         <v>400</v>
       </c>
-      <c r="I4" s="121"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="12" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="5" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="79" t="s">
         <v>403</v>
       </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="63">
         <v>0.25</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="83" t="s">
         <v>404</v>
       </c>
-      <c r="I5" s="111"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="109"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="64">
         <v>0.35</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="85" t="s">
         <v>404</v>
       </c>
-      <c r="I6" s="113"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="14">
         <v>6</v>
       </c>
@@ -7315,35 +7402,35 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="79" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="89"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="63">
         <v>0.25</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="83" t="s">
         <v>404</v>
       </c>
-      <c r="I8" s="111"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="109"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="64">
         <v>0.35</v>
       </c>
-      <c r="H9" s="112" t="s">
+      <c r="H9" s="85" t="s">
         <v>404</v>
       </c>
-      <c r="I9" s="113"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="14">
         <v>14</v>
       </c>
@@ -7358,10 +7445,10 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="4:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="87" t="s">
         <v>406</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="91" t="s">
         <v>403</v>
       </c>
       <c r="F11" s="67" t="s">
@@ -7382,8 +7469,8 @@
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="4:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="115"/>
-      <c r="E12" s="76"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="24"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -7391,9 +7478,9 @@
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="75" t="s">
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="91" t="s">
         <v>409</v>
       </c>
       <c r="G13" s="26">
@@ -7410,64 +7497,64 @@
       </c>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="117">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="93">
         <v>0.35</v>
       </c>
       <c r="H14" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="I14" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="97">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="117"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="I15" s="119"/>
-      <c r="J15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="98"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="96">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="99">
         <v>0.38</v>
       </c>
       <c r="H16" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="101" t="s">
         <v>404</v>
       </c>
-      <c r="J16" s="100">
+      <c r="J16" s="103">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="97"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="100"/>
       <c r="H17" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="101"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="104"/>
     </row>
     <row r="18" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="115"/>
-      <c r="E18" s="76"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -7475,8 +7562,8 @@
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="115"/>
-      <c r="E19" s="78"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="33" t="s">
         <v>411</v>
       </c>
@@ -7494,7 +7581,7 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="76"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -7503,57 +7590,57 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="115"/>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="88"/>
+      <c r="E21" s="91" t="s">
         <v>412</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="105" t="s">
         <v>413</v>
       </c>
       <c r="G21" s="26">
         <v>0.25</v>
       </c>
-      <c r="H21" s="105" t="s">
+      <c r="H21" s="96" t="s">
         <v>414</v>
       </c>
-      <c r="I21" s="105"/>
+      <c r="I21" s="96"/>
       <c r="J21" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D22" s="115"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="103"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="106"/>
       <c r="G22" s="58">
         <v>0.35</v>
       </c>
-      <c r="H22" s="106" t="s">
+      <c r="H22" s="108" t="s">
         <v>414</v>
       </c>
-      <c r="I22" s="106"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="37">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="115"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="104"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="107"/>
       <c r="G23" s="71">
         <v>0.38</v>
       </c>
-      <c r="H23" s="107" t="s">
+      <c r="H23" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="I23" s="107"/>
+      <c r="I23" s="109"/>
       <c r="J23" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="115"/>
-      <c r="E24" s="76"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="39"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -7561,33 +7648,33 @@
       <c r="J24" s="40"/>
     </row>
     <row r="25" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="115"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="102" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="105" t="s">
         <v>415</v>
       </c>
       <c r="G25" s="26">
         <v>0.35</v>
       </c>
-      <c r="H25" s="105" t="s">
+      <c r="H25" s="96" t="s">
         <v>414</v>
       </c>
-      <c r="I25" s="105"/>
+      <c r="I25" s="96"/>
       <c r="J25" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="116"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="104"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="107"/>
       <c r="G26" s="71">
         <v>0.38</v>
       </c>
-      <c r="H26" s="107" t="s">
+      <c r="H26" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="I26" s="107"/>
+      <c r="I26" s="109"/>
       <c r="J26" s="38">
         <v>14</v>
       </c>
@@ -7602,55 +7689,55 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="91" t="s">
         <v>416</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="111" t="s">
         <v>418</v>
       </c>
       <c r="G28" s="62">
         <v>0.25</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="I28" s="82"/>
+      <c r="I28" s="113"/>
       <c r="J28" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="43">
         <v>0.35</v>
       </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
       <c r="J29" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="80"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="112"/>
       <c r="G30" s="61">
         <v>0.38</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="117"/>
       <c r="J30" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="47"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -7658,50 +7745,50 @@
       <c r="J31" s="49"/>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="79" t="s">
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="111" t="s">
         <v>415</v>
       </c>
       <c r="G32" s="62">
         <v>0.25</v>
       </c>
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="79" t="s">
         <v>419</v>
       </c>
-      <c r="I32" s="82"/>
+      <c r="I32" s="113"/>
       <c r="J32" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="110"/>
       <c r="G33" s="43">
         <v>0.35</v>
       </c>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="115"/>
       <c r="J33" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="76"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="80"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="61">
         <v>0.38</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="86"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="117"/>
       <c r="J34" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="77"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
       <c r="G35" s="48"/>
@@ -7710,53 +7797,53 @@
       <c r="J35" s="49"/>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D36" s="76"/>
-      <c r="E36" s="75" t="s">
+      <c r="D36" s="89"/>
+      <c r="E36" s="91" t="s">
         <v>420</v>
       </c>
-      <c r="F36" s="79" t="s">
+      <c r="F36" s="111" t="s">
         <v>421</v>
       </c>
       <c r="G36" s="62">
         <v>0.25</v>
       </c>
-      <c r="H36" s="81" t="s">
+      <c r="H36" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="I36" s="82"/>
+      <c r="I36" s="113"/>
       <c r="J36" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="77"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="110"/>
       <c r="G37" s="43">
         <v>0.35</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="115"/>
       <c r="J37" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="80"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="112"/>
       <c r="G38" s="61">
         <v>0.38</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="86"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="117"/>
       <c r="J38" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="110"/>
       <c r="F39" s="47"/>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
@@ -7764,51 +7851,51 @@
       <c r="J39" s="49"/>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="79" t="s">
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="111" t="s">
         <v>422</v>
       </c>
       <c r="G40" s="62">
         <v>0.25</v>
       </c>
-      <c r="H40" s="81" t="s">
+      <c r="H40" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="I40" s="82"/>
+      <c r="I40" s="113"/>
       <c r="J40" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="77"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="110"/>
       <c r="G41" s="43">
         <v>0.35</v>
       </c>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="115"/>
       <c r="J41" s="44">
         <v>14</v>
       </c>
       <c r="O41" s="50"/>
     </row>
     <row r="42" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="76"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="80"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="61">
         <v>0.38</v>
       </c>
-      <c r="H42" s="85"/>
-      <c r="I42" s="86"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="117"/>
       <c r="J42" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="77"/>
+      <c r="D43" s="110"/>
       <c r="E43" s="47"/>
       <c r="F43" s="47"/>
       <c r="G43" s="48"/>
@@ -7817,33 +7904,33 @@
       <c r="J43" s="49"/>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D44" s="76"/>
-      <c r="E44" s="79" t="s">
+      <c r="D44" s="89"/>
+      <c r="E44" s="111" t="s">
         <v>423</v>
       </c>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="118" t="s">
         <v>424</v>
       </c>
       <c r="G44" s="41">
         <v>0.25</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="I44" s="89"/>
+      <c r="I44" s="80"/>
       <c r="J44" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="78"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="88"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="119"/>
       <c r="G45" s="45">
         <v>0.38</v>
       </c>
-      <c r="H45" s="90"/>
-      <c r="I45" s="91"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="82"/>
       <c r="J45" s="46">
         <v>1</v>
       </c>
@@ -7858,55 +7945,55 @@
       <c r="J46" s="53"/>
     </row>
     <row r="47" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="111" t="s">
         <v>418</v>
       </c>
       <c r="G47" s="62">
         <v>0.25</v>
       </c>
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="79" t="s">
         <v>419</v>
       </c>
-      <c r="I47" s="82"/>
+      <c r="I47" s="113"/>
       <c r="J47" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="77"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="110"/>
       <c r="G48" s="43">
         <v>0.35</v>
       </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="84"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="115"/>
       <c r="J48" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="80"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="112"/>
       <c r="G49" s="61">
         <v>0.38</v>
       </c>
-      <c r="H49" s="85"/>
-      <c r="I49" s="86"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="117"/>
       <c r="J49" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="110"/>
       <c r="F50" s="47"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
@@ -7914,50 +8001,50 @@
       <c r="J50" s="49"/>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="79" t="s">
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="111" t="s">
         <v>415</v>
       </c>
       <c r="G51" s="62">
         <v>0.25</v>
       </c>
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="79" t="s">
         <v>419</v>
       </c>
-      <c r="I51" s="82"/>
+      <c r="I51" s="113"/>
       <c r="J51" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="110"/>
       <c r="G52" s="43">
         <v>0.35</v>
       </c>
-      <c r="H52" s="83"/>
-      <c r="I52" s="84"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="115"/>
       <c r="J52" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="76"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="80"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="112"/>
       <c r="G53" s="61">
         <v>0.38</v>
       </c>
-      <c r="H53" s="85"/>
-      <c r="I53" s="86"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="117"/>
       <c r="J53" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="77"/>
+      <c r="D54" s="110"/>
       <c r="E54" s="47"/>
       <c r="F54" s="47"/>
       <c r="G54" s="48"/>
@@ -7966,53 +8053,53 @@
       <c r="J54" s="49"/>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="76"/>
-      <c r="E55" s="75" t="s">
+      <c r="D55" s="89"/>
+      <c r="E55" s="91" t="s">
         <v>420</v>
       </c>
-      <c r="F55" s="79" t="s">
+      <c r="F55" s="111" t="s">
         <v>421</v>
       </c>
       <c r="G55" s="62">
         <v>0.25</v>
       </c>
-      <c r="H55" s="81" t="s">
+      <c r="H55" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="I55" s="89"/>
+      <c r="I55" s="80"/>
       <c r="J55" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="110"/>
       <c r="G56" s="43">
         <v>0.35</v>
       </c>
-      <c r="H56" s="92"/>
-      <c r="I56" s="93"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="121"/>
       <c r="J56" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="80"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="112"/>
       <c r="G57" s="61">
         <v>0.38</v>
       </c>
-      <c r="H57" s="90"/>
-      <c r="I57" s="91"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="82"/>
       <c r="J57" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="76"/>
-      <c r="E58" s="77"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="47"/>
       <c r="G58" s="48"/>
       <c r="H58" s="48"/>
@@ -8020,50 +8107,50 @@
       <c r="J58" s="49"/>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="79" t="s">
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="111" t="s">
         <v>427</v>
       </c>
       <c r="G59" s="62">
         <v>0.25</v>
       </c>
-      <c r="H59" s="81" t="s">
+      <c r="H59" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="I59" s="89"/>
+      <c r="I59" s="80"/>
       <c r="J59" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="77"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="110"/>
       <c r="G60" s="43">
         <v>0.35</v>
       </c>
-      <c r="H60" s="92"/>
-      <c r="I60" s="93"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="121"/>
       <c r="J60" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D61" s="76"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="80"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="112"/>
       <c r="G61" s="61">
         <v>0.38</v>
       </c>
-      <c r="H61" s="90"/>
-      <c r="I61" s="91"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="82"/>
       <c r="J61" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="76"/>
+      <c r="D62" s="89"/>
       <c r="E62" s="54"/>
       <c r="F62" s="47"/>
       <c r="G62" s="48"/>
@@ -8072,33 +8159,33 @@
       <c r="J62" s="49"/>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D63" s="76"/>
-      <c r="E63" s="79" t="s">
+      <c r="D63" s="89"/>
+      <c r="E63" s="111" t="s">
         <v>423</v>
       </c>
-      <c r="F63" s="87" t="s">
+      <c r="F63" s="118" t="s">
         <v>424</v>
       </c>
       <c r="G63" s="62">
         <v>0.25</v>
       </c>
-      <c r="H63" s="81" t="s">
+      <c r="H63" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="I63" s="89"/>
+      <c r="I63" s="80"/>
       <c r="J63" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="78"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="88"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="61">
         <v>0.38</v>
       </c>
-      <c r="H64" s="90"/>
-      <c r="I64" s="91"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="82"/>
       <c r="J64" s="46">
         <v>1</v>
       </c>
@@ -8120,33 +8207,20 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D11:D26"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D47:D64"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="H47:I49"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="H51:I53"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="H55:I57"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="H59:I61"/>
     <mergeCell ref="D28:D45"/>
     <mergeCell ref="E28:E34"/>
     <mergeCell ref="F28:F30"/>
@@ -8161,20 +8235,33 @@
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="H44:I45"/>
-    <mergeCell ref="D47:D64"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="H47:I49"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="H51:I53"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="H55:I57"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="H59:I61"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D11:D26"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8183,10 +8270,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
@@ -11844,7 +11931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12228,7 +12315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12729,4 +12816,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49005765-97C5-4AC1-AFAA-5931329AAD44}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/static/documents/Supplemental_data.xlsx
+++ b/static/documents/Supplemental_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blucci\Desktop\piv\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413CFDD5-DD2F-480A-AD68-C5873B926B7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6273F7F-3EEA-4E6C-B8A2-2DC3485A6647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="3192" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestChart" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="503">
   <si>
     <t>Q25_smooth_small_sc655</t>
   </si>
@@ -2175,12 +2177,27 @@
   <si>
     <t>Gap size is 1.8 mm. with casing treatment</t>
   </si>
+  <si>
+    <t>normvor = 1000./(2*pi*8)</t>
+  </si>
+  <si>
+    <t>normTKE = 1./(11.4*11.4)</t>
+  </si>
+  <si>
+    <t>normvel = 1/11.47</t>
+  </si>
+  <si>
+    <t>Normalizing Parameter (multiply by:)</t>
+  </si>
+  <si>
+    <t>normprod = 1./normvel.^2.*normvor/1000.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2330,6 +2347,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2381,7 +2404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -3203,11 +3226,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3397,19 +3429,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3421,46 +3480,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3496,48 +3519,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7311,7 +7346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -7343,51 +7378,51 @@
       <c r="D4" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="120" t="s">
         <v>398</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="121"/>
       <c r="G4" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="120" t="s">
         <v>400</v>
       </c>
-      <c r="I4" s="76"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="12" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="5" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="108" t="s">
         <v>402</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="63">
         <v>0.25</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="110" t="s">
         <v>404</v>
       </c>
-      <c r="I5" s="84"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="78"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="64">
         <v>0.35</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="112" t="s">
         <v>404</v>
       </c>
-      <c r="I6" s="86"/>
+      <c r="I6" s="113"/>
       <c r="J6" s="14">
         <v>6</v>
       </c>
@@ -7402,35 +7437,35 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="108" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="63">
         <v>0.25</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="110" t="s">
         <v>404</v>
       </c>
-      <c r="I8" s="84"/>
+      <c r="I8" s="111"/>
       <c r="J8" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="78"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="64">
         <v>0.35</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="112" t="s">
         <v>404</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="14">
         <v>14</v>
       </c>
@@ -7445,10 +7480,10 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="4:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="114" t="s">
         <v>406</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="75" t="s">
         <v>403</v>
       </c>
       <c r="F11" s="67" t="s">
@@ -7469,8 +7504,8 @@
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="4:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="24"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -7478,9 +7513,9 @@
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="91" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="75" t="s">
         <v>409</v>
       </c>
       <c r="G13" s="26">
@@ -7497,64 +7532,64 @@
       </c>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="93">
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="117">
         <v>0.35</v>
       </c>
       <c r="H14" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="I14" s="94" t="s">
+      <c r="I14" s="118" t="s">
         <v>404</v>
       </c>
-      <c r="J14" s="97">
+      <c r="J14" s="94">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="93"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="117"/>
       <c r="H15" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="98"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="95"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="99">
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="96">
         <v>0.38</v>
       </c>
       <c r="H16" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="I16" s="101" t="s">
+      <c r="I16" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="J16" s="103">
+      <c r="J16" s="100">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="100"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="I17" s="102"/>
-      <c r="J17" s="104"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -7562,8 +7597,8 @@
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="88"/>
-      <c r="E19" s="92"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="33" t="s">
         <v>411</v>
       </c>
@@ -7581,7 +7616,7 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="89"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -7590,57 +7625,57 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="88"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="75" t="s">
         <v>412</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="102" t="s">
         <v>413</v>
       </c>
       <c r="G21" s="26">
         <v>0.25</v>
       </c>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="I21" s="96"/>
+      <c r="I21" s="105"/>
       <c r="J21" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="106"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="58">
         <v>0.35</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H22" s="106" t="s">
         <v>414</v>
       </c>
-      <c r="I22" s="108"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="37">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="107"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="71">
         <v>0.38</v>
       </c>
-      <c r="H23" s="109" t="s">
+      <c r="H23" s="107" t="s">
         <v>414</v>
       </c>
-      <c r="I23" s="109"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="39"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -7648,33 +7683,33 @@
       <c r="J24" s="40"/>
     </row>
     <row r="25" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="105" t="s">
+      <c r="D25" s="115"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="102" t="s">
         <v>415</v>
       </c>
       <c r="G25" s="26">
         <v>0.35</v>
       </c>
-      <c r="H25" s="96" t="s">
+      <c r="H25" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="I25" s="96"/>
+      <c r="I25" s="105"/>
       <c r="J25" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="90"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="107"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="71">
         <v>0.38</v>
       </c>
-      <c r="H26" s="109" t="s">
+      <c r="H26" s="107" t="s">
         <v>414</v>
       </c>
-      <c r="I26" s="109"/>
+      <c r="I26" s="107"/>
       <c r="J26" s="38">
         <v>14</v>
       </c>
@@ -7689,55 +7724,55 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="75" t="s">
         <v>416</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="F28" s="111" t="s">
+      <c r="F28" s="79" t="s">
         <v>418</v>
       </c>
       <c r="G28" s="62">
         <v>0.25</v>
       </c>
-      <c r="H28" s="79" t="s">
+      <c r="H28" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="I28" s="113"/>
+      <c r="I28" s="82"/>
       <c r="J28" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="110"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="43">
         <v>0.35</v>
       </c>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
       <c r="J29" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="112"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="61">
         <v>0.38</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="117"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
       <c r="J30" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="89"/>
-      <c r="E31" s="110"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="47"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -7745,50 +7780,50 @@
       <c r="J31" s="49"/>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="111" t="s">
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="79" t="s">
         <v>415</v>
       </c>
       <c r="G32" s="62">
         <v>0.25</v>
       </c>
-      <c r="H32" s="79" t="s">
+      <c r="H32" s="81" t="s">
         <v>419</v>
       </c>
-      <c r="I32" s="113"/>
+      <c r="I32" s="82"/>
       <c r="J32" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="110"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="43">
         <v>0.35</v>
       </c>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="89"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="112"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="80"/>
       <c r="G34" s="61">
         <v>0.38</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="117"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="86"/>
       <c r="J34" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="110"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
       <c r="G35" s="48"/>
@@ -7797,53 +7832,53 @@
       <c r="J35" s="49"/>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D36" s="89"/>
-      <c r="E36" s="91" t="s">
+      <c r="D36" s="76"/>
+      <c r="E36" s="75" t="s">
         <v>420</v>
       </c>
-      <c r="F36" s="111" t="s">
+      <c r="F36" s="79" t="s">
         <v>421</v>
       </c>
       <c r="G36" s="62">
         <v>0.25</v>
       </c>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="I36" s="113"/>
+      <c r="I36" s="82"/>
       <c r="J36" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="110"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
       <c r="G37" s="43">
         <v>0.35</v>
       </c>
-      <c r="H37" s="114"/>
-      <c r="I37" s="115"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="112"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="61">
         <v>0.38</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="117"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="86"/>
       <c r="J38" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="89"/>
-      <c r="E39" s="110"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="47"/>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
@@ -7851,51 +7886,51 @@
       <c r="J39" s="49"/>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="111" t="s">
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="79" t="s">
         <v>422</v>
       </c>
       <c r="G40" s="62">
         <v>0.25</v>
       </c>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="I40" s="113"/>
+      <c r="I40" s="82"/>
       <c r="J40" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="110"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77"/>
       <c r="G41" s="43">
         <v>0.35</v>
       </c>
-      <c r="H41" s="114"/>
-      <c r="I41" s="115"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="44">
         <v>14</v>
       </c>
       <c r="O41" s="50"/>
     </row>
     <row r="42" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="89"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="112"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="61">
         <v>0.38</v>
       </c>
-      <c r="H42" s="116"/>
-      <c r="I42" s="117"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="86"/>
       <c r="J42" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="110"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="47"/>
       <c r="F43" s="47"/>
       <c r="G43" s="48"/>
@@ -7904,33 +7939,33 @@
       <c r="J43" s="49"/>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D44" s="89"/>
-      <c r="E44" s="111" t="s">
+      <c r="D44" s="76"/>
+      <c r="E44" s="79" t="s">
         <v>423</v>
       </c>
-      <c r="F44" s="118" t="s">
+      <c r="F44" s="87" t="s">
         <v>424</v>
       </c>
       <c r="G44" s="41">
         <v>0.25</v>
       </c>
-      <c r="H44" s="79" t="s">
+      <c r="H44" s="81" t="s">
         <v>425</v>
       </c>
-      <c r="I44" s="80"/>
+      <c r="I44" s="89"/>
       <c r="J44" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="92"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="119"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="88"/>
       <c r="G45" s="45">
         <v>0.38</v>
       </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="82"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="91"/>
       <c r="J45" s="46">
         <v>1</v>
       </c>
@@ -7945,55 +7980,55 @@
       <c r="J46" s="53"/>
     </row>
     <row r="47" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="91" t="s">
+      <c r="D47" s="75" t="s">
         <v>426</v>
       </c>
-      <c r="E47" s="91" t="s">
+      <c r="E47" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="F47" s="111" t="s">
+      <c r="F47" s="79" t="s">
         <v>418</v>
       </c>
       <c r="G47" s="62">
         <v>0.25</v>
       </c>
-      <c r="H47" s="79" t="s">
+      <c r="H47" s="81" t="s">
         <v>419</v>
       </c>
-      <c r="I47" s="113"/>
+      <c r="I47" s="82"/>
       <c r="J47" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="110"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
       <c r="G48" s="43">
         <v>0.35</v>
       </c>
-      <c r="H48" s="114"/>
-      <c r="I48" s="115"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
       <c r="J48" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="112"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="80"/>
       <c r="G49" s="61">
         <v>0.38</v>
       </c>
-      <c r="H49" s="116"/>
-      <c r="I49" s="117"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="86"/>
       <c r="J49" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="89"/>
-      <c r="E50" s="110"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
       <c r="F50" s="47"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
@@ -8001,50 +8036,50 @@
       <c r="J50" s="49"/>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="111" t="s">
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="79" t="s">
         <v>415</v>
       </c>
       <c r="G51" s="62">
         <v>0.25</v>
       </c>
-      <c r="H51" s="79" t="s">
+      <c r="H51" s="81" t="s">
         <v>419</v>
       </c>
-      <c r="I51" s="113"/>
+      <c r="I51" s="82"/>
       <c r="J51" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="110"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
       <c r="G52" s="43">
         <v>0.35</v>
       </c>
-      <c r="H52" s="114"/>
-      <c r="I52" s="115"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="84"/>
       <c r="J52" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="89"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="112"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="80"/>
       <c r="G53" s="61">
         <v>0.38</v>
       </c>
-      <c r="H53" s="116"/>
-      <c r="I53" s="117"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="110"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="47"/>
       <c r="F54" s="47"/>
       <c r="G54" s="48"/>
@@ -8053,53 +8088,53 @@
       <c r="J54" s="49"/>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="89"/>
-      <c r="E55" s="91" t="s">
+      <c r="D55" s="76"/>
+      <c r="E55" s="75" t="s">
         <v>420</v>
       </c>
-      <c r="F55" s="111" t="s">
+      <c r="F55" s="79" t="s">
         <v>421</v>
       </c>
       <c r="G55" s="62">
         <v>0.25</v>
       </c>
-      <c r="H55" s="79" t="s">
+      <c r="H55" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="I55" s="80"/>
+      <c r="I55" s="89"/>
       <c r="J55" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="110"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
       <c r="G56" s="43">
         <v>0.35</v>
       </c>
-      <c r="H56" s="120"/>
-      <c r="I56" s="121"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="93"/>
       <c r="J56" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="112"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="80"/>
       <c r="G57" s="61">
         <v>0.38</v>
       </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="82"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
       <c r="J57" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="89"/>
-      <c r="E58" s="110"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="77"/>
       <c r="F58" s="47"/>
       <c r="G58" s="48"/>
       <c r="H58" s="48"/>
@@ -8107,50 +8142,50 @@
       <c r="J58" s="49"/>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="111" t="s">
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="79" t="s">
         <v>427</v>
       </c>
       <c r="G59" s="62">
         <v>0.25</v>
       </c>
-      <c r="H59" s="79" t="s">
+      <c r="H59" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="I59" s="80"/>
+      <c r="I59" s="89"/>
       <c r="J59" s="42">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="110"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
       <c r="G60" s="43">
         <v>0.35</v>
       </c>
-      <c r="H60" s="120"/>
-      <c r="I60" s="121"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="93"/>
       <c r="J60" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D61" s="89"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="112"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="80"/>
       <c r="G61" s="61">
         <v>0.38</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="82"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="91"/>
       <c r="J61" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="89"/>
+      <c r="D62" s="76"/>
       <c r="E62" s="54"/>
       <c r="F62" s="47"/>
       <c r="G62" s="48"/>
@@ -8159,33 +8194,33 @@
       <c r="J62" s="49"/>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D63" s="89"/>
-      <c r="E63" s="111" t="s">
+      <c r="D63" s="76"/>
+      <c r="E63" s="79" t="s">
         <v>423</v>
       </c>
-      <c r="F63" s="118" t="s">
+      <c r="F63" s="87" t="s">
         <v>424</v>
       </c>
       <c r="G63" s="62">
         <v>0.25</v>
       </c>
-      <c r="H63" s="79" t="s">
+      <c r="H63" s="81" t="s">
         <v>425</v>
       </c>
-      <c r="I63" s="80"/>
+      <c r="I63" s="89"/>
       <c r="J63" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="92"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="119"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="88"/>
       <c r="G64" s="61">
         <v>0.38</v>
       </c>
-      <c r="H64" s="81"/>
-      <c r="I64" s="82"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="91"/>
       <c r="J64" s="46">
         <v>1</v>
       </c>
@@ -8207,6 +8242,47 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D11:D26"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D28:D45"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="H28:I30"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="H32:I34"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="H36:I38"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="H40:I42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:I45"/>
     <mergeCell ref="D47:D64"/>
     <mergeCell ref="E47:E53"/>
     <mergeCell ref="F47:F49"/>
@@ -8221,47 +8297,6 @@
     <mergeCell ref="H55:I57"/>
     <mergeCell ref="F59:F61"/>
     <mergeCell ref="H59:I61"/>
-    <mergeCell ref="D28:D45"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="H28:I30"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="H32:I34"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="H36:I38"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="H40:I42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D11:D26"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -11932,31 +11967,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C35"/>
+  <dimension ref="A2:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="77.109375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>127</v>
       </c>
@@ -11966,8 +12002,11 @@
       <c r="C4" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="122" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>130</v>
       </c>
@@ -11978,7 +12017,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
@@ -11989,7 +12028,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>135</v>
       </c>
@@ -12000,7 +12039,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>137</v>
       </c>
@@ -12011,7 +12050,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>140</v>
       </c>
@@ -12022,7 +12061,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>142</v>
       </c>
@@ -12033,7 +12072,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>144</v>
       </c>
@@ -12044,7 +12083,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>146</v>
       </c>
@@ -12054,8 +12093,11 @@
       <c r="C12" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="123" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>148</v>
       </c>
@@ -12065,8 +12107,11 @@
       <c r="C13" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D13" s="123" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>150</v>
       </c>
@@ -12076,8 +12121,11 @@
       <c r="C14" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D14" s="123" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>152</v>
       </c>
@@ -12087,8 +12135,11 @@
       <c r="C15" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>154</v>
       </c>
@@ -12099,7 +12150,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>157</v>
       </c>
@@ -12110,7 +12161,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>159</v>
       </c>
@@ -12121,7 +12172,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>161</v>
       </c>
@@ -12132,7 +12183,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>164</v>
       </c>
@@ -12143,7 +12194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>166</v>
       </c>
@@ -12154,7 +12205,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>168</v>
       </c>
@@ -12164,8 +12215,11 @@
       <c r="C22" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>170</v>
       </c>
@@ -12175,8 +12229,11 @@
       <c r="C23" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>172</v>
       </c>
@@ -12186,8 +12243,11 @@
       <c r="C24" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>174</v>
       </c>
@@ -12197,8 +12257,11 @@
       <c r="C25" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D25" s="124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>176</v>
       </c>
@@ -12208,8 +12271,11 @@
       <c r="C26" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D26" s="124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>178</v>
       </c>
@@ -12219,8 +12285,11 @@
       <c r="C27" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D27" s="124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>180</v>
       </c>
@@ -12230,8 +12299,11 @@
       <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>182</v>
       </c>
@@ -12241,8 +12313,11 @@
       <c r="C29" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>184</v>
       </c>
@@ -12252,8 +12327,11 @@
       <c r="C30" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>186</v>
       </c>
@@ -12263,8 +12341,11 @@
       <c r="C31" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>188</v>
       </c>
@@ -12274,8 +12355,11 @@
       <c r="C32" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>190</v>
       </c>
@@ -12285,8 +12369,11 @@
       <c r="C33" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>192</v>
       </c>
@@ -12296,8 +12383,11 @@
       <c r="C34" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>194</v>
       </c>
@@ -12307,8 +12397,17 @@
       <c r="C35" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="D35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>502</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/static/documents/Supplemental_data.xlsx
+++ b/static/documents/Supplemental_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blucci\Desktop\piv\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6273F7F-3EEA-4E6C-B8A2-2DC3485A6647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A760B-E4DA-41FC-9EE8-E0FC12076858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3192" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestChart" sheetId="11" r:id="rId1"/>
@@ -54,12 +54,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="507">
   <si>
     <t>Q25_smooth_small_sc655</t>
-  </si>
-  <si>
-    <t>Q25_smooth_small_sc218</t>
   </si>
   <si>
     <t>Q25_smooth_small_sc328</t>
@@ -2187,10 +2184,25 @@
     <t>normvel = 1/11.47</t>
   </si>
   <si>
-    <t>Normalizing Parameter (multiply by:)</t>
-  </si>
-  <si>
     <t>normprod = 1./normvel.^2.*normvor/1000.</t>
+  </si>
+  <si>
+    <t>Normalization factor (multiply by:)</t>
+  </si>
+  <si>
+    <t>Q25_smooth_small_sc218          Smooth wall small gap</t>
+  </si>
+  <si>
+    <t>IGV has 20 vanes</t>
+  </si>
+  <si>
+    <t>Stator has 20 vanes</t>
+  </si>
+  <si>
+    <t>Rotor has 15 blades</t>
+  </si>
+  <si>
+    <t>Limits for Plotting</t>
   </si>
 </sst>
 </file>
@@ -3239,7 +3251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3341,9 +3353,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3351,9 +3360,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3429,46 +3435,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3480,10 +3462,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3519,60 +3537,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7346,8 +7352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7360,69 +7366,69 @@
   <sheetData>
     <row r="1" spans="4:16" ht="29.4" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="4:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="D2" s="74" t="s">
-        <v>497</v>
+      <c r="D2" s="72" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="4:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="H4" s="120" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="12" t="s">
+    </row>
+    <row r="5" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="78" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="5" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="108" t="s">
+      <c r="E5" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="F5" s="81"/>
+      <c r="G5" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="H5" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="I5" s="111"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="109"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="64">
+      <c r="D6" s="79"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="62">
         <v>0.35</v>
       </c>
-      <c r="H6" s="112" t="s">
-        <v>404</v>
-      </c>
-      <c r="I6" s="113"/>
+      <c r="H6" s="86" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="87"/>
       <c r="J6" s="14">
         <v>6</v>
       </c>
@@ -7437,35 +7443,35 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="108" t="s">
-        <v>405</v>
-      </c>
-      <c r="E8" s="81" t="s">
+      <c r="D8" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="81"/>
+      <c r="G8" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="H8" s="110" t="s">
-        <v>404</v>
-      </c>
-      <c r="I8" s="111"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="109"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="64">
+      <c r="D9" s="79"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="62">
         <v>0.35</v>
       </c>
-      <c r="H9" s="112" t="s">
-        <v>404</v>
-      </c>
-      <c r="I9" s="113"/>
+      <c r="H9" s="86" t="s">
+        <v>403</v>
+      </c>
+      <c r="I9" s="87"/>
       <c r="J9" s="14">
         <v>14</v>
       </c>
@@ -7480,23 +7486,23 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="4:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="88" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="G11" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>403</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>407</v>
-      </c>
-      <c r="G11" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>408</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>404</v>
       </c>
       <c r="J11" s="22">
         <v>14</v>
@@ -7504,8 +7510,8 @@
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="4:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="115"/>
-      <c r="E12" s="76"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="24"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -7513,83 +7519,83 @@
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="75" t="s">
-        <v>409</v>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="92" t="s">
+        <v>408</v>
       </c>
       <c r="G13" s="26">
         <v>0.25</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J13" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="117">
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="94">
         <v>0.35</v>
       </c>
-      <c r="H14" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="I14" s="118" t="s">
-        <v>404</v>
-      </c>
-      <c r="J14" s="94">
+      <c r="H14" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="I14" s="95" t="s">
+        <v>403</v>
+      </c>
+      <c r="J14" s="98">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="65" t="s">
-        <v>410</v>
-      </c>
-      <c r="I15" s="119"/>
-      <c r="J15" s="95"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="I15" s="96"/>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="96">
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="100">
         <v>0.38</v>
       </c>
-      <c r="H16" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="I16" s="98" t="s">
-        <v>404</v>
-      </c>
-      <c r="J16" s="100">
+      <c r="H16" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="I16" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="J16" s="104">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="60" t="s">
-        <v>410</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="101"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="I17" s="103"/>
+      <c r="J17" s="105"/>
     </row>
     <row r="18" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="115"/>
-      <c r="E18" s="76"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -7597,26 +7603,26 @@
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="115"/>
-      <c r="E19" s="78"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G19" s="34">
         <v>0.25</v>
       </c>
-      <c r="H19" s="66" t="s">
-        <v>408</v>
+      <c r="H19" s="64" t="s">
+        <v>407</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J19" s="36">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="76"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -7625,57 +7631,57 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="115"/>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="89"/>
+      <c r="E21" s="92" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="106" t="s">
         <v>412</v>
-      </c>
-      <c r="F21" s="102" t="s">
-        <v>413</v>
       </c>
       <c r="G21" s="26">
         <v>0.25</v>
       </c>
-      <c r="H21" s="105" t="s">
-        <v>414</v>
-      </c>
-      <c r="I21" s="105"/>
+      <c r="H21" s="97" t="s">
+        <v>413</v>
+      </c>
+      <c r="I21" s="97"/>
       <c r="J21" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D22" s="115"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="58">
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="56">
         <v>0.35</v>
       </c>
-      <c r="H22" s="106" t="s">
-        <v>414</v>
-      </c>
-      <c r="I22" s="106"/>
+      <c r="H22" s="109" t="s">
+        <v>413</v>
+      </c>
+      <c r="I22" s="109"/>
       <c r="J22" s="37">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="115"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="71">
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="69">
         <v>0.38</v>
       </c>
-      <c r="H23" s="107" t="s">
-        <v>414</v>
-      </c>
-      <c r="I23" s="107"/>
+      <c r="H23" s="110" t="s">
+        <v>413</v>
+      </c>
+      <c r="I23" s="110"/>
       <c r="J23" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="115"/>
-      <c r="E24" s="76"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="39"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -7683,33 +7689,33 @@
       <c r="J24" s="40"/>
     </row>
     <row r="25" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="115"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="102" t="s">
-        <v>415</v>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="106" t="s">
+        <v>414</v>
       </c>
       <c r="G25" s="26">
         <v>0.35</v>
       </c>
-      <c r="H25" s="105" t="s">
-        <v>414</v>
-      </c>
-      <c r="I25" s="105"/>
+      <c r="H25" s="97" t="s">
+        <v>413</v>
+      </c>
+      <c r="I25" s="97"/>
       <c r="J25" s="28">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="116"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="71">
+      <c r="D26" s="91"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="69">
         <v>0.38</v>
       </c>
-      <c r="H26" s="107" t="s">
-        <v>414</v>
-      </c>
-      <c r="I26" s="107"/>
+      <c r="H26" s="110" t="s">
+        <v>413</v>
+      </c>
+      <c r="I26" s="110"/>
       <c r="J26" s="38">
         <v>14</v>
       </c>
@@ -7724,551 +7730,538 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="F28" s="112" t="s">
         <v>417</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="G28" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>413</v>
+      </c>
+      <c r="I28" s="114"/>
+      <c r="J28" s="41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="H29" s="115"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="59">
+        <v>0.38</v>
+      </c>
+      <c r="H30" s="117"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="90"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="112" t="s">
+        <v>414</v>
+      </c>
+      <c r="G32" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="G28" s="62">
+      <c r="I32" s="114"/>
+      <c r="J32" s="41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="H33" s="115"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="90"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="59">
+        <v>0.38</v>
+      </c>
+      <c r="H34" s="117"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="111"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D36" s="90"/>
+      <c r="E36" s="92" t="s">
+        <v>419</v>
+      </c>
+      <c r="F36" s="112" t="s">
+        <v>420</v>
+      </c>
+      <c r="G36" s="60">
         <v>0.25</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H36" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="I36" s="114"/>
+      <c r="J36" s="41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="H37" s="115"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="59">
+        <v>0.38</v>
+      </c>
+      <c r="H38" s="117"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="90"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="47"/>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="112" t="s">
+        <v>421</v>
+      </c>
+      <c r="G40" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H40" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="I40" s="114"/>
+      <c r="J40" s="41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="H41" s="115"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="43">
+        <v>14</v>
+      </c>
+      <c r="O41" s="48"/>
+    </row>
+    <row r="42" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="90"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="59">
+        <v>0.38</v>
+      </c>
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="111"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="47"/>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D44" s="90"/>
+      <c r="E44" s="112" t="s">
+        <v>422</v>
+      </c>
+      <c r="F44" s="119" t="s">
+        <v>423</v>
+      </c>
+      <c r="G44" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H44" s="80" t="s">
+        <v>424</v>
+      </c>
+      <c r="I44" s="81"/>
+      <c r="J44" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="93"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="59">
+        <v>0.38</v>
+      </c>
+      <c r="H45" s="82"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+    </row>
+    <row r="47" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="E47" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="F47" s="112" t="s">
+        <v>417</v>
+      </c>
+      <c r="G47" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H47" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="I47" s="114"/>
+      <c r="J47" s="41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="H48" s="115"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="59">
+        <v>0.38</v>
+      </c>
+      <c r="H49" s="117"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="90"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="I28" s="82"/>
-      <c r="J28" s="42">
+      <c r="G51" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="H51" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="I51" s="114"/>
+      <c r="J51" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="43">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="42">
         <v>0.35</v>
       </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="44">
+      <c r="H52" s="115"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="43">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="61">
+    <row r="53" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D53" s="90"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="59">
         <v>0.38</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="46">
+      <c r="H53" s="117"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="44">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="79" t="s">
-        <v>415</v>
-      </c>
-      <c r="G32" s="62">
+    <row r="54" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="111"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="47"/>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D55" s="90"/>
+      <c r="E55" s="92" t="s">
+        <v>419</v>
+      </c>
+      <c r="F55" s="112" t="s">
+        <v>420</v>
+      </c>
+      <c r="G55" s="60">
         <v>0.25</v>
       </c>
-      <c r="H32" s="81" t="s">
-        <v>419</v>
-      </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="42">
+      <c r="H55" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="I55" s="81"/>
+      <c r="J55" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="43">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="42">
         <v>0.35</v>
       </c>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="44">
+      <c r="H56" s="121"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="43">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="76"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="61">
+    <row r="57" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="59">
         <v>0.38</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="46">
+      <c r="H57" s="82"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="44">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="77"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="49"/>
-    </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D36" s="76"/>
-      <c r="E36" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="F36" s="79" t="s">
-        <v>421</v>
-      </c>
-      <c r="G36" s="62">
+    <row r="58" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="90"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="47"/>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="112" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" s="60">
         <v>0.25</v>
       </c>
-      <c r="H36" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="I36" s="82"/>
-      <c r="J36" s="42">
+      <c r="H59" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="I59" s="81"/>
+      <c r="J59" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="43">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="42">
         <v>0.35</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="44">
+      <c r="H60" s="121"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="43">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="61">
+    <row r="61" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="90"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="59">
         <v>0.38</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="46">
+      <c r="H61" s="82"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="44">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="79" t="s">
+    <row r="62" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D62" s="90"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="47"/>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D63" s="90"/>
+      <c r="E63" s="112" t="s">
         <v>422</v>
       </c>
-      <c r="G40" s="62">
+      <c r="F63" s="119" t="s">
+        <v>423</v>
+      </c>
+      <c r="G63" s="60">
         <v>0.25</v>
       </c>
-      <c r="H40" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="I40" s="82"/>
-      <c r="J40" s="42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="43">
-        <v>0.35</v>
-      </c>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="44">
-        <v>14</v>
-      </c>
-      <c r="O41" s="50"/>
-    </row>
-    <row r="42" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="76"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="61">
+      <c r="H63" s="80" t="s">
+        <v>424</v>
+      </c>
+      <c r="I63" s="81"/>
+      <c r="J63" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="93"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="59">
         <v>0.38</v>
       </c>
-      <c r="H42" s="85"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="77"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="49"/>
-    </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D44" s="76"/>
-      <c r="E44" s="79" t="s">
-        <v>423</v>
-      </c>
-      <c r="F44" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="G44" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="H44" s="81" t="s">
-        <v>425</v>
-      </c>
-      <c r="I44" s="89"/>
-      <c r="J44" s="42">
+      <c r="H64" s="82"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="78"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="45">
-        <v>0.38</v>
-      </c>
-      <c r="H45" s="90"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="75" t="s">
-        <v>426</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>417</v>
-      </c>
-      <c r="F47" s="79" t="s">
-        <v>418</v>
-      </c>
-      <c r="G47" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="H47" s="81" t="s">
-        <v>419</v>
-      </c>
-      <c r="I47" s="82"/>
-      <c r="J47" s="42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="43">
-        <v>0.35</v>
-      </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="44">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="61">
-        <v>0.38</v>
-      </c>
-      <c r="H49" s="85"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="49"/>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="79" t="s">
-        <v>415</v>
-      </c>
-      <c r="G51" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="H51" s="81" t="s">
-        <v>419</v>
-      </c>
-      <c r="I51" s="82"/>
-      <c r="J51" s="42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="43">
-        <v>0.35</v>
-      </c>
-      <c r="H52" s="83"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="44">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="76"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="61">
-        <v>0.38</v>
-      </c>
-      <c r="H53" s="85"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="77"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="49"/>
-    </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="76"/>
-      <c r="E55" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="F55" s="79" t="s">
-        <v>421</v>
-      </c>
-      <c r="G55" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="H55" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="I55" s="89"/>
-      <c r="J55" s="42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="43">
-        <v>0.35</v>
-      </c>
-      <c r="H56" s="92"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="44">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="61">
-        <v>0.38</v>
-      </c>
-      <c r="H57" s="90"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="76"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="49"/>
-    </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="79" t="s">
+    <row r="67" spans="6:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="F67" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="G59" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="H59" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="I59" s="89"/>
-      <c r="J59" s="42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="43">
-        <v>0.35</v>
-      </c>
-      <c r="H60" s="92"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="44">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D61" s="76"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="61">
-        <v>0.38</v>
-      </c>
-      <c r="H61" s="90"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="76"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="49"/>
-    </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D63" s="76"/>
-      <c r="E63" s="79" t="s">
-        <v>423</v>
-      </c>
-      <c r="F63" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="G63" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="H63" s="81" t="s">
-        <v>425</v>
-      </c>
-      <c r="I63" s="89"/>
-      <c r="J63" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="78"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="61">
-        <v>0.38</v>
-      </c>
-      <c r="H64" s="90"/>
-      <c r="I64" s="91"/>
-      <c r="J64" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="F67" s="56" t="s">
+    </row>
+    <row r="68" spans="6:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="F68" s="54" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="68" spans="6:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="F68" s="56" t="s">
+    <row r="70" spans="6:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F70" s="55" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="F70" s="57" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D11:D26"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D47:D64"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="H47:I49"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="H51:I53"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="H55:I57"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="H59:I61"/>
     <mergeCell ref="D28:D45"/>
     <mergeCell ref="E28:E34"/>
     <mergeCell ref="F28:F30"/>
@@ -8283,20 +8276,33 @@
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="H44:I45"/>
-    <mergeCell ref="D47:D64"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="H47:I49"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="H51:I53"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="H55:I57"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="H59:I61"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D11:D26"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8309,7 +8315,7 @@
   <dimension ref="A1:G447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G236" sqref="G236"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8320,15 +8326,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="B2">
         <v>0.81299999999999994</v>
@@ -8336,7 +8342,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.79500000000000004</v>
@@ -8344,7 +8350,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.95599999999999996</v>
@@ -8360,7 +8366,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1.1020000000000001</v>
@@ -8368,7 +8374,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1.0840000000000001</v>
@@ -8376,7 +8382,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7">
         <v>0.77900000000000003</v>
@@ -8384,7 +8390,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7">
         <v>0.95699999999999996</v>
@@ -8392,7 +8398,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>1.0780000000000001</v>
@@ -8400,7 +8406,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7">
         <v>1.0860000000000001</v>
@@ -8408,7 +8414,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7">
         <v>1.0860000000000001</v>
@@ -8416,7 +8422,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7">
         <v>1.1519999999999999</v>
@@ -8424,7 +8430,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B14">
         <v>1.528</v>
@@ -8432,7 +8438,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>0.99399999999999999</v>
@@ -8440,7 +8446,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>1.4279999999999999</v>
@@ -8448,7 +8454,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>0.97199999999999998</v>
@@ -8456,7 +8462,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>1.4350000000000001</v>
@@ -8464,7 +8470,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0.95499999999999996</v>
@@ -8472,7 +8478,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>1.4339999999999999</v>
@@ -8480,7 +8486,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B21">
         <v>1.74</v>
@@ -8488,7 +8494,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B22">
         <v>1.732</v>
@@ -8496,7 +8502,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B23">
         <v>1.7070000000000001</v>
@@ -8504,7 +8510,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B24">
         <v>1.56</v>
@@ -8512,7 +8518,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B25">
         <v>1.748</v>
@@ -8520,7 +8526,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B26">
         <v>1.7589999999999999</v>
@@ -8528,7 +8534,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B27">
         <v>1.7509999999999999</v>
@@ -8536,7 +8542,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B28" s="7">
         <v>0.70699999999999996</v>
@@ -8544,7 +8550,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B29" s="7">
         <v>1.4059999999999999</v>
@@ -8552,7 +8558,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B30" s="7">
         <v>1.359</v>
@@ -8560,7 +8566,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B31" s="7">
         <v>0.61599999999999999</v>
@@ -8568,7 +8574,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B32" s="7">
         <v>1.5309999999999999</v>
@@ -8576,7 +8582,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B33" s="7">
         <v>1.5289999999999999</v>
@@ -8584,7 +8590,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B34" s="7">
         <v>1.5289999999999999</v>
@@ -8592,7 +8598,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="7">
         <v>0.36299999999999999</v>
@@ -8600,7 +8606,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="7">
         <v>0.96899999999999997</v>
@@ -8608,7 +8614,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="7">
         <v>0.88600000000000001</v>
@@ -8616,7 +8622,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="7">
         <v>1.0149999999999999</v>
@@ -8624,7 +8630,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="7">
         <v>1.131</v>
@@ -8632,7 +8638,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="7">
         <v>1.5209999999999999</v>
@@ -8640,7 +8646,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="7">
         <v>1.52</v>
@@ -8648,7 +8654,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>3.4319999999999999</v>
@@ -8656,7 +8662,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>3.6549999999999998</v>
@@ -8664,7 +8670,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>3.524</v>
@@ -8672,7 +8678,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -8680,7 +8686,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>2.9580000000000002</v>
@@ -8688,7 +8694,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>1.9750000000000001</v>
@@ -8696,7 +8702,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>3.4769999999999999</v>
@@ -8704,7 +8710,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>3.7850000000000001</v>
@@ -8712,7 +8718,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>3.714</v>
@@ -8720,7 +8726,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>3.7549999999999999</v>
@@ -8728,7 +8734,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>3.7189999999999999</v>
@@ -8736,7 +8742,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>3.6539999999999999</v>
@@ -8744,7 +8750,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>3.5720000000000001</v>
@@ -8752,7 +8758,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>3.6749999999999998</v>
@@ -8760,7 +8766,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="7">
         <v>3.012</v>
@@ -8768,7 +8774,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="7">
         <v>3.09</v>
@@ -8776,7 +8782,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" s="7">
         <v>3.4580000000000002</v>
@@ -8784,7 +8790,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" s="7">
         <v>3.4</v>
@@ -8792,7 +8798,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60" s="7">
         <v>3.3849999999999998</v>
@@ -8800,7 +8806,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" s="7">
         <v>2.9260000000000002</v>
@@ -8808,7 +8814,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="7">
         <v>3.181</v>
@@ -8816,7 +8822,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" s="7">
         <v>3.6259999999999999</v>
@@ -8824,7 +8830,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" s="7">
         <v>3.484</v>
@@ -8832,7 +8838,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" s="7">
         <v>3.605</v>
@@ -8840,7 +8846,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="7">
         <v>3.61</v>
@@ -8848,7 +8854,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" s="7">
         <v>3.198</v>
@@ -8856,7 +8862,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="7">
         <v>3.331</v>
@@ -8864,7 +8870,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" s="7">
         <v>3.621</v>
@@ -8872,7 +8878,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70">
         <v>2.6560000000000001</v>
@@ -8880,7 +8886,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>2.7559999999999998</v>
@@ -8888,7 +8894,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72">
         <v>2.2930000000000001</v>
@@ -8896,7 +8902,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B73">
         <v>2.7269999999999999</v>
@@ -8904,7 +8910,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74">
         <v>2.7130000000000001</v>
@@ -8912,7 +8918,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75">
         <v>2.7280000000000002</v>
@@ -8920,7 +8926,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76">
         <v>2.7749999999999999</v>
@@ -8928,7 +8934,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>2.9009999999999998</v>
@@ -8936,7 +8942,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78">
         <v>2.911</v>
@@ -8944,7 +8950,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79">
         <v>2.899</v>
@@ -8952,7 +8958,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80">
         <v>2.8860000000000001</v>
@@ -8960,7 +8966,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81">
         <v>2.8980000000000001</v>
@@ -8968,7 +8974,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B82">
         <v>2.9009999999999998</v>
@@ -8976,7 +8982,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83">
         <v>2.8580000000000001</v>
@@ -8984,7 +8990,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B84" s="7">
         <v>1.3120000000000001</v>
@@ -8992,7 +8998,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85" s="7">
         <v>1.3129999999999999</v>
@@ -9000,7 +9006,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" s="7">
         <v>1.3129999999999999</v>
@@ -9008,7 +9014,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="7">
         <v>3.2130000000000001</v>
@@ -9016,7 +9022,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="7">
         <v>1.2809999999999999</v>
@@ -9024,7 +9030,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" s="7">
         <v>1.276</v>
@@ -9032,7 +9038,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90" s="7">
         <v>3.0939999999999999</v>
@@ -9040,7 +9046,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91" s="7">
         <v>3.085</v>
@@ -9048,7 +9054,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92" s="7">
         <v>2.99</v>
@@ -9056,7 +9062,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B93" s="7">
         <v>2.9990000000000001</v>
@@ -9064,7 +9070,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" s="7">
         <v>3.214</v>
@@ -9072,7 +9078,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="7">
         <v>1.3120000000000001</v>
@@ -9080,7 +9086,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="7">
         <v>1.3120000000000001</v>
@@ -9088,7 +9094,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97" s="7">
         <v>1.3109999999999999</v>
@@ -9096,7 +9102,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98">
         <v>1.3109999999999999</v>
@@ -9104,7 +9110,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99">
         <v>1.274</v>
@@ -9112,7 +9118,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100">
         <v>1.1859999999999999</v>
@@ -9120,7 +9126,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101">
         <v>3.2090000000000001</v>
@@ -9128,7 +9134,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102">
         <v>1.2789999999999999</v>
@@ -9136,7 +9142,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103">
         <v>1.274</v>
@@ -9144,7 +9150,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104">
         <v>1.2569999999999999</v>
@@ -9152,7 +9158,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105">
         <v>3.0750000000000002</v>
@@ -9160,7 +9166,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106">
         <v>2.8809999999999998</v>
@@ -9168,7 +9174,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107">
         <v>3.0489999999999999</v>
@@ -9176,7 +9182,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108">
         <v>1.306</v>
@@ -9184,7 +9190,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109">
         <v>1.3080000000000001</v>
@@ -9192,7 +9198,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B110">
         <v>1.306</v>
@@ -9200,7 +9206,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B111">
         <v>1.306</v>
@@ -9208,7 +9214,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="7">
         <v>2.4119999999999999</v>
@@ -9217,7 +9223,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="7">
         <v>1.054</v>
@@ -9226,7 +9232,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="7">
         <v>2.7109999999999999</v>
@@ -9235,7 +9241,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="7">
         <v>2.6190000000000002</v>
@@ -9244,7 +9250,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="7">
         <v>2.7029999999999998</v>
@@ -9253,7 +9259,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="7">
         <v>2.6970000000000001</v>
@@ -9262,7 +9268,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="7">
         <v>2.6190000000000002</v>
@@ -9271,7 +9277,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B119" s="7">
         <v>0.56799999999999995</v>
@@ -9280,7 +9286,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="7">
         <v>2.665</v>
@@ -9289,7 +9295,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="7">
         <v>3.1179999999999999</v>
@@ -9298,7 +9304,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="7">
         <v>0.82899999999999996</v>
@@ -9307,7 +9313,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="7">
         <v>2.79</v>
@@ -9316,7 +9322,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="7">
         <v>2.456</v>
@@ -9325,7 +9331,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="7">
         <v>1.796</v>
@@ -9334,7 +9340,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B126" s="3">
         <v>0.251</v>
@@ -9343,7 +9349,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B127" s="3">
         <v>0.24399999999999999</v>
@@ -9352,7 +9358,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B128" s="3">
         <v>0.252</v>
@@ -9360,7 +9366,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" s="3">
         <v>0.24</v>
@@ -9368,7 +9374,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B130" s="3">
         <v>0.252</v>
@@ -9376,7 +9382,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B131" s="3">
         <v>0.23699999999999999</v>
@@ -9384,7 +9390,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B132" s="3">
         <v>0.252</v>
@@ -9392,7 +9398,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B133" s="3">
         <v>0.23400000000000001</v>
@@ -9400,7 +9406,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B134" s="3">
         <v>0.23</v>
@@ -9408,7 +9414,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B135" s="3">
         <v>0.23799999999999999</v>
@@ -9416,7 +9422,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136" s="3">
         <v>0.251</v>
@@ -9424,7 +9430,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B137" s="3">
         <v>0.252</v>
@@ -9432,7 +9438,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B138" s="3">
         <v>0.252</v>
@@ -9440,7 +9446,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B139" s="3">
         <v>0.252</v>
@@ -9448,7 +9454,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B140" s="7">
         <v>0.246</v>
@@ -9456,7 +9462,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" s="7">
         <v>0.23899999999999999</v>
@@ -9464,7 +9470,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B142" s="7">
         <v>0.247</v>
@@ -9472,7 +9478,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B143" s="7">
         <v>0.23499999999999999</v>
@@ -9480,7 +9486,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B144" s="7">
         <v>0.247</v>
@@ -9488,7 +9494,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B145" s="7">
         <v>0.23300000000000001</v>
@@ -9496,7 +9502,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" s="7">
         <v>0.245</v>
@@ -9504,7 +9510,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B147" s="7">
         <v>0.23</v>
@@ -9512,7 +9518,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B148" s="7">
         <v>0.22700000000000001</v>
@@ -9520,7 +9526,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B149" s="7">
         <v>0.23499999999999999</v>
@@ -9528,7 +9534,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" s="7">
         <v>0.247</v>
@@ -9536,7 +9542,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" s="7">
         <v>0.247</v>
@@ -9544,7 +9550,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="7">
         <v>0.247</v>
@@ -9552,7 +9558,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B153" s="7">
         <v>0.247</v>
@@ -9560,7 +9566,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B154" s="3">
         <v>0.27100000000000002</v>
@@ -9568,7 +9574,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B155" s="3">
         <v>0.26300000000000001</v>
@@ -9576,7 +9582,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B156" s="3">
         <v>0.27400000000000002</v>
@@ -9584,7 +9590,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B157" s="3">
         <v>0.25800000000000001</v>
@@ -9592,7 +9598,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B158" s="3">
         <v>0.27400000000000002</v>
@@ -9600,7 +9606,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B159" s="3">
         <v>0.25700000000000001</v>
@@ -9608,7 +9614,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B160" s="3">
         <v>0.27400000000000002</v>
@@ -9616,7 +9622,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B161" s="3">
         <v>0.254</v>
@@ -9624,7 +9630,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B162" s="3">
         <v>0.25</v>
@@ -9632,7 +9638,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B163" s="3">
         <v>0.26100000000000001</v>
@@ -9640,7 +9646,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B164" s="3">
         <v>0.27400000000000002</v>
@@ -9648,7 +9654,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B165" s="3">
         <v>0.27500000000000002</v>
@@ -9656,7 +9662,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B166" s="3">
         <v>0.27500000000000002</v>
@@ -9664,7 +9670,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B167" s="3">
         <v>0.27400000000000002</v>
@@ -9672,7 +9678,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B168" s="7">
         <v>0.26700000000000002</v>
@@ -9680,7 +9686,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B169" s="7">
         <v>0.25800000000000001</v>
@@ -9688,7 +9694,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B170" s="7">
         <v>0.26800000000000002</v>
@@ -9696,7 +9702,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B171" s="7">
         <v>0.254</v>
@@ -9704,7 +9710,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B172" s="7">
         <v>0.26800000000000002</v>
@@ -9712,7 +9718,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B173" s="7">
         <v>0.251</v>
@@ -9720,7 +9726,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B174" s="7">
         <v>0.26800000000000002</v>
@@ -9728,7 +9734,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B175" s="7">
         <v>0.25</v>
@@ -9736,7 +9742,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B176" s="7">
         <v>0.247</v>
@@ -9744,7 +9750,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B177" s="7">
         <v>0.25600000000000001</v>
@@ -9752,7 +9758,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B178" s="7">
         <v>0.26900000000000002</v>
@@ -9760,7 +9766,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B179" s="7">
         <v>0.26900000000000002</v>
@@ -9768,7 +9774,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B180" s="7">
         <v>0.26900000000000002</v>
@@ -9776,7 +9782,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B181" s="7">
         <v>0.26900000000000002</v>
@@ -9784,7 +9790,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B182" s="3">
         <v>0.26800000000000002</v>
@@ -9792,7 +9798,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B183" s="3">
         <v>0.26800000000000002</v>
@@ -9800,7 +9806,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B184" s="3">
         <v>0.26700000000000002</v>
@@ -9808,7 +9814,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B185" s="3">
         <v>0.26900000000000002</v>
@@ -9816,7 +9822,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B186" s="3">
         <v>0.26700000000000002</v>
@@ -9824,7 +9830,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B187" s="3">
         <v>0.25700000000000001</v>
@@ -9832,7 +9838,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B188" s="3">
         <v>0.26700000000000002</v>
@@ -9840,7 +9846,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B189" s="3">
         <v>0.25600000000000001</v>
@@ -9848,7 +9854,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B190" s="3">
         <v>0.251</v>
@@ -9856,7 +9862,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B191" s="3">
         <v>0.24399999999999999</v>
@@ -9864,7 +9870,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B192" s="3">
         <v>0.247</v>
@@ -9872,7 +9878,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B193" s="3">
         <v>0.26600000000000001</v>
@@ -9880,7 +9886,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B194" s="3">
         <v>0.26700000000000002</v>
@@ -9888,7 +9894,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B195" s="3">
         <v>0.26700000000000002</v>
@@ -9896,7 +9902,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B196" s="7">
         <v>0.13200000000000001</v>
@@ -9904,7 +9910,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B197" s="7">
         <v>0.13200000000000001</v>
@@ -9912,7 +9918,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B198" s="7">
         <v>0.13200000000000001</v>
@@ -9920,7 +9926,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B199" s="7">
         <v>0.13200000000000001</v>
@@ -9928,7 +9934,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B200" s="7">
         <v>0.13100000000000001</v>
@@ -9936,7 +9942,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B201" s="7">
         <v>0.129</v>
@@ -9944,7 +9950,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B202" s="7">
         <v>0.13100000000000001</v>
@@ -9952,7 +9958,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B203" s="7">
         <v>0.126</v>
@@ -9960,7 +9966,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B204" s="7">
         <v>0.124</v>
@@ -9968,7 +9974,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B205" s="7">
         <v>0.121</v>
@@ -9976,7 +9982,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B206" s="7">
         <v>0.123</v>
@@ -9984,7 +9990,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B207" s="7">
         <v>0.13200000000000001</v>
@@ -9992,7 +9998,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B208" s="7">
         <v>0.13300000000000001</v>
@@ -10000,7 +10006,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B209" s="7">
         <v>0.26300000000000001</v>
@@ -10008,7 +10014,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B210" s="3">
         <v>0.221</v>
@@ -10016,7 +10022,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B211" s="3">
         <v>0.221</v>
@@ -10024,7 +10030,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B212" s="3">
         <v>0.221</v>
@@ -10032,7 +10038,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B213" s="3">
         <v>0.221</v>
@@ -10040,7 +10046,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B214" s="3">
         <v>0.221</v>
@@ -10048,7 +10054,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B215" s="3">
         <v>0.215</v>
@@ -10056,7 +10062,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B216" s="3">
         <v>0.221</v>
@@ -10064,7 +10070,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B217" s="3">
         <v>0.21299999999999999</v>
@@ -10072,7 +10078,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B218" s="3">
         <v>0.20899999999999999</v>
@@ -10080,7 +10086,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B219" s="3">
         <v>0.20599999999999999</v>
@@ -10088,7 +10094,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B220" s="3">
         <v>0.21</v>
@@ -10096,7 +10102,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B221" s="3">
         <v>0.22</v>
@@ -10104,7 +10110,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B222" s="3">
         <v>0.221</v>
@@ -10112,7 +10118,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B223" s="3">
         <v>0.222</v>
@@ -10120,7 +10126,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B224" s="7">
         <v>0.217</v>
@@ -10128,7 +10134,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B225" s="7">
         <v>0.11</v>
@@ -10136,7 +10142,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B226" s="7">
         <v>0.217</v>
@@ -10144,7 +10150,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B227" s="7">
         <v>0.217</v>
@@ -10152,7 +10158,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B228" s="7">
         <v>0.217</v>
@@ -10160,7 +10166,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B229" s="7">
         <v>0.21099999999999999</v>
@@ -10168,7 +10174,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B230" s="7">
         <v>0.217</v>
@@ -10176,7 +10182,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B231" s="7">
         <v>0.20899999999999999</v>
@@ -10184,7 +10190,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B232" s="7">
         <v>0.20499999999999999</v>
@@ -10192,7 +10198,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B233" s="7">
         <v>0.20100000000000001</v>
@@ -10200,7 +10206,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B234" s="7">
         <v>0.20699999999999999</v>
@@ -10208,7 +10214,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B235" s="7">
         <v>0.218</v>
@@ -10216,18 +10222,18 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B236" s="7">
         <v>0.218</v>
       </c>
       <c r="G236" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B237" s="7">
         <v>0.218</v>
@@ -10235,7 +10241,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B238" s="3">
         <v>1.004</v>
@@ -10243,7 +10249,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B239" s="3">
         <v>1.425</v>
@@ -10251,7 +10257,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B240" s="3">
         <v>1.389</v>
@@ -10259,7 +10265,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B241" s="3">
         <v>1.115</v>
@@ -10267,7 +10273,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B242" s="3">
         <v>1.3819999999999999</v>
@@ -10275,7 +10281,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B243" s="3">
         <v>2.649</v>
@@ -10283,7 +10289,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B244" s="3">
         <v>1.5820000000000001</v>
@@ -10291,7 +10297,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B245" s="3">
         <v>3.081</v>
@@ -10299,7 +10305,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B246" s="3">
         <v>1.8879999999999999</v>
@@ -10307,7 +10313,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B247" s="3">
         <v>1.044</v>
@@ -10315,7 +10321,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B248" s="3">
         <v>0.85499999999999998</v>
@@ -10323,18 +10329,18 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B249" s="3">
         <v>1.347</v>
       </c>
       <c r="E249" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B250" s="7">
         <v>0.30099999999999999</v>
@@ -10342,7 +10348,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B251" s="7">
         <v>0.51200000000000001</v>
@@ -10350,7 +10356,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B252" s="7">
         <v>0.51700000000000002</v>
@@ -10358,7 +10364,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B253" s="7">
         <v>0.52500000000000002</v>
@@ -10366,7 +10372,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B254" s="7">
         <v>0.50700000000000001</v>
@@ -10374,7 +10380,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B255" s="7">
         <v>0.51900000000000002</v>
@@ -10382,7 +10388,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B256" s="7">
         <v>0.45300000000000001</v>
@@ -10390,7 +10396,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B257" s="7">
         <v>0.51300000000000001</v>
@@ -10398,7 +10404,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B258" s="7">
         <v>0.624</v>
@@ -10406,7 +10412,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B259" s="7">
         <v>0.628</v>
@@ -10414,7 +10420,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B260" s="7">
         <v>0.49199999999999999</v>
@@ -10422,7 +10428,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B261" s="7">
         <v>0.49099999999999999</v>
@@ -10430,7 +10436,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B262" s="7">
         <v>0.497</v>
@@ -10438,7 +10444,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B263" s="7">
         <v>0.48299999999999998</v>
@@ -10446,7 +10452,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B264" s="3">
         <v>0.20100000000000001</v>
@@ -10454,7 +10460,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B265" s="3">
         <v>0.20100000000000001</v>
@@ -10462,7 +10468,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B266" s="3">
         <v>0.20100000000000001</v>
@@ -10470,7 +10476,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B267" s="3">
         <v>0.20100000000000001</v>
@@ -10478,7 +10484,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B268" s="3">
         <v>0.20200000000000001</v>
@@ -10486,7 +10492,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B269" s="3">
         <v>0.20100000000000001</v>
@@ -10494,7 +10500,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B270" s="3">
         <v>0.2</v>
@@ -10502,7 +10508,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B271" s="3">
         <v>0.2</v>
@@ -10510,7 +10516,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B272" s="3">
         <v>0.19900000000000001</v>
@@ -10518,7 +10524,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B273" s="3">
         <v>0.2</v>
@@ -10526,7 +10532,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B274" s="3">
         <v>0.2</v>
@@ -10534,7 +10540,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B275" s="3">
         <v>0.19900000000000001</v>
@@ -10542,7 +10548,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B276" s="3">
         <v>0.19900000000000001</v>
@@ -10550,7 +10556,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B277" s="3">
         <v>0.2</v>
@@ -10558,7 +10564,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B278" s="7">
         <v>0.10299999999999999</v>
@@ -10566,7 +10572,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B279" s="7">
         <v>0.10299999999999999</v>
@@ -10574,7 +10580,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B280" s="7">
         <v>0.10299999999999999</v>
@@ -10582,7 +10588,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B281" s="7">
         <v>0.10299999999999999</v>
@@ -10590,7 +10596,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B282" s="7">
         <v>0.10299999999999999</v>
@@ -10598,7 +10604,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B283" s="7">
         <v>0.10299999999999999</v>
@@ -10606,7 +10612,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B284" s="7">
         <v>0.10299999999999999</v>
@@ -10614,7 +10620,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B285" s="7">
         <v>0.10299999999999999</v>
@@ -10622,7 +10628,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B286" s="7">
         <v>0.10299999999999999</v>
@@ -10630,7 +10636,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B287" s="7">
         <v>0.10299999999999999</v>
@@ -10638,7 +10644,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B288" s="7">
         <v>0.10299999999999999</v>
@@ -10646,7 +10652,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B289" s="7">
         <v>0.10199999999999999</v>
@@ -10654,7 +10660,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B290" s="7">
         <v>0.10299999999999999</v>
@@ -10662,7 +10668,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B291" s="7">
         <v>0.10299999999999999</v>
@@ -10670,7 +10676,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B292" s="3">
         <v>0.20399999999999999</v>
@@ -10678,7 +10684,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B293" s="3">
         <v>0.20499999999999999</v>
@@ -10686,7 +10692,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B294" s="3">
         <v>0.20300000000000001</v>
@@ -10694,7 +10700,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B295" s="3">
         <v>0.20499999999999999</v>
@@ -10702,7 +10708,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B296" s="3">
         <v>0.20300000000000001</v>
@@ -10710,7 +10716,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B297" s="3">
         <v>0.20499999999999999</v>
@@ -10718,7 +10724,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B298" s="3">
         <v>0.20300000000000001</v>
@@ -10726,7 +10732,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B299" s="3">
         <v>0.20499999999999999</v>
@@ -10734,7 +10740,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B300" s="3">
         <v>0.20399999999999999</v>
@@ -10742,7 +10748,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B301">
         <v>0.20399999999999999</v>
@@ -10750,7 +10756,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B302">
         <v>0.20399999999999999</v>
@@ -10758,7 +10764,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B303">
         <v>0.20399999999999999</v>
@@ -10766,7 +10772,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B304">
         <v>0.20399999999999999</v>
@@ -10774,7 +10780,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B305">
         <v>0.20399999999999999</v>
@@ -10782,7 +10788,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -10790,7 +10796,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B307" s="7">
         <v>0.29499999999999998</v>
@@ -10798,7 +10804,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B308" s="7">
         <v>0.29399999999999998</v>
@@ -10806,7 +10812,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B309" s="7">
         <v>0.30199999999999999</v>
@@ -10814,7 +10820,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B310" s="7">
         <v>0.29399999999999998</v>
@@ -10822,7 +10828,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B311" s="7">
         <v>0.29499999999999998</v>
@@ -10830,7 +10836,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B312" s="7">
         <v>0.29299999999999998</v>
@@ -10838,7 +10844,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B313" s="7">
         <v>0.29399999999999998</v>
@@ -10846,7 +10852,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B314" s="7">
         <v>0.29299999999999998</v>
@@ -10854,7 +10860,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B315" s="7">
         <v>0.191</v>
@@ -10862,7 +10868,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B316" s="7">
         <v>0.19</v>
@@ -10870,7 +10876,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B317" s="7">
         <v>0.28999999999999998</v>
@@ -10878,7 +10884,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B318" s="7">
         <v>0.29199999999999998</v>
@@ -10886,7 +10892,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B319" s="7">
         <v>0.30099999999999999</v>
@@ -10894,7 +10900,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B320" s="7">
         <v>0.192</v>
@@ -10902,7 +10908,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B321" s="3">
         <v>0.192</v>
@@ -10910,7 +10916,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B322" s="3">
         <v>0.191</v>
@@ -10918,7 +10924,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B323" s="3">
         <v>0.192</v>
@@ -10926,7 +10932,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B324" s="3">
         <v>0.192</v>
@@ -10934,7 +10940,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B325" s="3">
         <v>0.192</v>
@@ -10942,7 +10948,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B326" s="3">
         <v>0.191</v>
@@ -10950,7 +10956,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B327" s="3">
         <v>0.192</v>
@@ -10958,7 +10964,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B328" s="3">
         <v>0.191</v>
@@ -10966,7 +10972,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B329" s="3">
         <v>0.19</v>
@@ -10974,7 +10980,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B330" s="3">
         <v>0.19</v>
@@ -10982,7 +10988,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B331">
         <v>0.17100000000000001</v>
@@ -10990,7 +10996,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B332">
         <v>0.191</v>
@@ -10998,7 +11004,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B333">
         <v>0.192</v>
@@ -11006,7 +11012,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B334">
         <v>0.192</v>
@@ -11014,7 +11020,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B335" s="7">
         <v>0.189</v>
@@ -11022,7 +11028,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B336" s="7">
         <v>0.188</v>
@@ -11030,7 +11036,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B337" s="7">
         <v>0.188</v>
@@ -11038,7 +11044,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B338" s="7">
         <v>0.188</v>
@@ -11046,7 +11052,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B339" s="7">
         <v>0.188</v>
@@ -11054,7 +11060,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B340" s="7">
         <v>0.188</v>
@@ -11062,7 +11068,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B341" s="7">
         <v>0.188</v>
@@ -11070,7 +11076,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B342" s="7">
         <v>0.188</v>
@@ -11078,7 +11084,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B343" s="7">
         <v>0.188</v>
@@ -11086,7 +11092,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B344" s="7">
         <v>0.17199999999999999</v>
@@ -11094,7 +11100,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B345" s="7">
         <v>0.17199999999999999</v>
@@ -11102,7 +11108,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B346" s="7">
         <v>0.17199999999999999</v>
@@ -11110,7 +11116,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B347" s="7">
         <v>0.188</v>
@@ -11118,7 +11124,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B348" s="7">
         <v>0.188</v>
@@ -11126,7 +11132,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B349" s="3">
         <v>3.0449999999999999</v>
@@ -11135,7 +11141,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B350" s="3">
         <v>3.4180000000000001</v>
@@ -11143,7 +11149,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B351" s="7">
         <v>0.23499999999999999</v>
@@ -11152,7 +11158,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B352" s="7">
         <v>0.23499999999999999</v>
@@ -11161,7 +11167,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B353" s="7">
         <v>0.23499999999999999</v>
@@ -11169,7 +11175,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B354" s="7">
         <v>0.23499999999999999</v>
@@ -11177,7 +11183,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B355" s="7">
         <v>0.23499999999999999</v>
@@ -11185,7 +11191,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B356" s="7">
         <v>1.1850000000000001</v>
@@ -11193,7 +11199,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B357" s="7">
         <v>0.23499999999999999</v>
@@ -11201,7 +11207,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B358" s="7">
         <v>0.215</v>
@@ -11209,7 +11215,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B359" s="7">
         <v>1.18</v>
@@ -11217,7 +11223,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B360" s="7">
         <v>1.18</v>
@@ -11225,7 +11231,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B361" s="7">
         <v>0.95499999999999996</v>
@@ -11233,7 +11239,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B362" s="7">
         <v>0.23300000000000001</v>
@@ -11241,7 +11247,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B363" s="7">
         <v>0.95899999999999996</v>
@@ -11249,7 +11255,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B364" s="7">
         <v>0.96699999999999997</v>
@@ -11257,7 +11263,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B365" s="3">
         <v>0.60299999999999998</v>
@@ -11265,7 +11271,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B366" s="3">
         <v>1.006</v>
@@ -11273,7 +11279,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B367" s="3">
         <v>0.20899999999999999</v>
@@ -11281,7 +11287,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B368" s="3">
         <v>0.189</v>
@@ -11289,7 +11295,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B369" s="3">
         <v>0.20899999999999999</v>
@@ -11297,7 +11303,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B370" s="3">
         <v>0.21</v>
@@ -11305,7 +11311,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B371" s="3">
         <v>0.20799999999999999</v>
@@ -11313,7 +11319,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B372" s="3">
         <v>1.048</v>
@@ -11321,7 +11327,7 @@
     </row>
     <row r="373" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B373" s="3">
         <v>1.0680000000000001</v>
@@ -11329,7 +11335,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B374" s="3">
         <v>0.189</v>
@@ -11337,7 +11343,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B375" s="3">
         <v>0.86499999999999999</v>
@@ -11345,7 +11351,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B376" s="3">
         <v>0.188</v>
@@ -11353,7 +11359,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B377" s="3">
         <v>0.86499999999999999</v>
@@ -11361,7 +11367,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B378" s="3">
         <v>0.86299999999999999</v>
@@ -11369,18 +11375,18 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B379" s="7">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C379" s="72">
+      <c r="C379" s="70">
         <v>43971</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B380" s="7">
         <v>0.23499999999999999</v>
@@ -11389,7 +11395,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B381" s="7">
         <v>0.23499999999999999</v>
@@ -11398,7 +11404,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B382" s="7">
         <v>0.23499999999999999</v>
@@ -11407,7 +11413,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B383" s="7">
         <v>0.23499999999999999</v>
@@ -11416,7 +11422,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B384" s="7">
         <v>0.23400000000000001</v>
@@ -11425,7 +11431,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B385" s="7">
         <v>0.23499999999999999</v>
@@ -11434,7 +11440,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B386" s="7">
         <v>0.23400000000000001</v>
@@ -11443,7 +11449,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B387" s="7">
         <v>0.23400000000000001</v>
@@ -11452,7 +11458,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B388" s="7">
         <v>0.23300000000000001</v>
@@ -11461,7 +11467,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B389" s="7">
         <v>0.23300000000000001</v>
@@ -11470,7 +11476,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B390" s="7">
         <v>0.23300000000000001</v>
@@ -11479,7 +11485,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B391" s="7">
         <v>0.23300000000000001</v>
@@ -11488,7 +11494,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B392" s="7">
         <v>0.23499999999999999</v>
@@ -11497,18 +11503,18 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B393" s="3">
         <v>0.20899999999999999</v>
       </c>
-      <c r="C393" s="72">
+      <c r="C393" s="70">
         <v>43971</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B394" s="3">
         <v>0.20899999999999999</v>
@@ -11517,7 +11523,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B395" s="3">
         <v>0.20899999999999999</v>
@@ -11525,7 +11531,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B396" s="3">
         <v>0.20899999999999999</v>
@@ -11533,7 +11539,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B397" s="3">
         <v>0.20899999999999999</v>
@@ -11541,7 +11547,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B398" s="3">
         <v>0.21</v>
@@ -11549,7 +11555,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B399" s="3">
         <v>0.20899999999999999</v>
@@ -11557,7 +11563,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B400" s="3">
         <v>0.21</v>
@@ -11565,7 +11571,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B401" s="3">
         <v>0.21</v>
@@ -11573,7 +11579,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B402" s="3">
         <v>0.21</v>
@@ -11581,7 +11587,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B403" s="3">
         <v>0.21</v>
@@ -11589,7 +11595,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B404" s="3">
         <v>0.20899999999999999</v>
@@ -11597,7 +11603,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B405" s="3">
         <v>0.20899999999999999</v>
@@ -11605,7 +11611,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B406" s="3">
         <v>0.20899999999999999</v>
@@ -11613,18 +11619,18 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B407" s="7">
         <v>0.52</v>
       </c>
-      <c r="C407" s="73">
+      <c r="C407" s="71">
         <v>43973</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B408" s="7">
         <v>0.51900000000000002</v>
@@ -11632,7 +11638,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B409" s="7">
         <v>0.52100000000000002</v>
@@ -11640,7 +11646,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B410" s="7">
         <v>0.51700000000000002</v>
@@ -11648,7 +11654,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B411" s="7">
         <v>0.52200000000000002</v>
@@ -11656,7 +11662,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B412" s="7">
         <v>0.51800000000000002</v>
@@ -11664,7 +11670,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B413" s="7">
         <v>0.52200000000000002</v>
@@ -11672,7 +11678,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B414" s="7">
         <v>0.51800000000000002</v>
@@ -11680,7 +11686,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B415" s="7">
         <v>0.51700000000000002</v>
@@ -11688,7 +11694,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B416" s="7">
         <v>0.51800000000000002</v>
@@ -11696,7 +11702,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B417" s="7">
         <v>0.51700000000000002</v>
@@ -11704,7 +11710,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B418" s="7">
         <v>0.51600000000000001</v>
@@ -11712,7 +11718,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B419" s="7">
         <v>0.52</v>
@@ -11720,7 +11726,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B420" s="7">
         <v>0.52</v>
@@ -11728,18 +11734,18 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B421" s="3">
         <v>0.14899999999999999</v>
       </c>
-      <c r="C421" s="73">
+      <c r="C421" s="71">
         <v>43978</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B422" s="3">
         <v>0.29899999999999999</v>
@@ -11747,7 +11753,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B423" s="3">
         <v>0.29499999999999998</v>
@@ -11755,7 +11761,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B424" s="3">
         <v>0.14899999999999999</v>
@@ -11763,7 +11769,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B425" s="3">
         <v>0.29499999999999998</v>
@@ -11771,7 +11777,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B426" s="3">
         <v>0.14899999999999999</v>
@@ -11779,7 +11785,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B427" s="3">
         <v>0.29699999999999999</v>
@@ -11787,7 +11793,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B428" s="3">
         <v>0.29799999999999999</v>
@@ -11795,7 +11801,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B429" s="3">
         <v>0.29399999999999998</v>
@@ -11803,7 +11809,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B430" s="3">
         <v>0.29399999999999998</v>
@@ -11811,7 +11817,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B431" s="3">
         <v>0.29399999999999998</v>
@@ -11819,7 +11825,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B432">
         <v>0.29399999999999998</v>
@@ -11827,7 +11833,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B433">
         <v>0.29399999999999998</v>
@@ -11835,7 +11841,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B434">
         <v>0.29499999999999998</v>
@@ -11845,12 +11851,12 @@
         <v>375.964</v>
       </c>
       <c r="D434" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B435" s="7">
         <v>0.95599999999999996</v>
@@ -11858,7 +11864,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B436" s="7">
         <v>0.38300000000000001</v>
@@ -11866,7 +11872,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B437" s="7">
         <v>0.13</v>
@@ -11874,7 +11880,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B438" s="7">
         <v>0.13</v>
@@ -11882,7 +11888,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B439" s="7">
         <v>0.20200000000000001</v>
@@ -11890,7 +11896,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B440" s="7">
         <v>0.13700000000000001</v>
@@ -11898,7 +11904,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B441" s="7">
         <v>0.14199999999999999</v>
@@ -11906,7 +11912,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B442" s="7">
         <v>0.16800000000000001</v>
@@ -11914,7 +11920,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B443" s="7">
         <v>9.7000000000000003E-2</v>
@@ -11922,7 +11928,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B444" s="7">
         <v>7.1999999999999995E-2</v>
@@ -11930,7 +11936,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B445" s="7">
         <v>5.6000000000000001E-2</v>
@@ -11938,7 +11944,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B446" s="7">
         <v>9.7000000000000003E-2</v>
@@ -11946,7 +11952,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B447" s="7">
         <v>7.0000000000000007E-2</v>
@@ -11956,7 +11962,7 @@
         <v>378.60399999999993</v>
       </c>
       <c r="D447" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -11969,8 +11975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11983,427 +11989,427 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="73" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="123" t="s">
-        <v>500</v>
+      <c r="D12" s="74" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="123" t="s">
-        <v>500</v>
+      <c r="D13" s="74" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="123" t="s">
-        <v>500</v>
+      <c r="D14" s="74" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>498</v>
+      <c r="D15" s="75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="124" t="s">
-        <v>498</v>
+      <c r="D22" s="75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="124" t="s">
-        <v>498</v>
+      <c r="D23" s="75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="124" t="s">
-        <v>498</v>
+      <c r="D24" s="75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="124" t="s">
-        <v>498</v>
+      <c r="D25" s="75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="124" t="s">
-        <v>498</v>
+      <c r="D26" s="75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="124" t="s">
-        <v>498</v>
+      <c r="D27" s="75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="124" t="s">
-        <v>498</v>
+      <c r="D28" s="75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="D29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="D30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="D31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="D32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="D33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="D35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -12415,10 +12421,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12428,487 +12434,492 @@
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="70" t="s">
-        <v>399</v>
-      </c>
-      <c r="E2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>434</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="G2" s="68" t="s">
         <v>435</v>
       </c>
-      <c r="G2" s="70" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="D3" s="68" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="E3" t="s">
         <v>438</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>439</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>440</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>442</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G5" t="s">
         <v>440</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>444</v>
       </c>
-      <c r="G5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F12" t="s">
+        <v>450</v>
+      </c>
+      <c r="G12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>446</v>
       </c>
-      <c r="G6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+      <c r="F13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>447</v>
       </c>
-      <c r="F7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="70" t="s">
+      <c r="F14" t="s">
+        <v>450</v>
+      </c>
+      <c r="G14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="s">
         <v>449</v>
       </c>
-      <c r="E9" t="s">
-        <v>450</v>
-      </c>
-      <c r="F9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F10" t="s">
-        <v>440</v>
-      </c>
-      <c r="G10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>442</v>
-      </c>
-      <c r="F11" t="s">
-        <v>440</v>
-      </c>
-      <c r="G11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>445</v>
-      </c>
-      <c r="F12" t="s">
-        <v>451</v>
-      </c>
-      <c r="G12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F13" t="s">
-        <v>451</v>
-      </c>
-      <c r="G13" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>448</v>
-      </c>
-      <c r="F14" t="s">
-        <v>451</v>
-      </c>
-      <c r="G14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>452</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="G15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>438</v>
       </c>
-      <c r="E15" t="s">
-        <v>450</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" t="s">
         <v>453</v>
-      </c>
-      <c r="G15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F16" t="s">
-        <v>453</v>
-      </c>
-      <c r="G16" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F17" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" t="s">
         <v>453</v>
-      </c>
-      <c r="G17" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
+        <v>446</v>
+      </c>
+      <c r="F20" t="s">
+        <v>455</v>
+      </c>
+      <c r="G20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="68"/>
+      <c r="E21" t="s">
         <v>447</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
+        <v>455</v>
+      </c>
+      <c r="G21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="68"/>
+      <c r="E22" t="s">
         <v>456</v>
       </c>
-      <c r="G20" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="70"/>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
+        <v>457</v>
+      </c>
+      <c r="G22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="68"/>
+      <c r="E23" t="s">
+        <v>458</v>
+      </c>
+      <c r="F23" t="s">
+        <v>457</v>
+      </c>
+      <c r="G23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="68"/>
+      <c r="E24" t="s">
+        <v>459</v>
+      </c>
+      <c r="F24" t="s">
+        <v>457</v>
+      </c>
+      <c r="G24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="68"/>
+      <c r="E25" t="s">
+        <v>460</v>
+      </c>
+      <c r="F25" t="s">
+        <v>457</v>
+      </c>
+      <c r="G25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="68"/>
+      <c r="E26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F26" t="s">
+        <v>457</v>
+      </c>
+      <c r="G26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="68"/>
+      <c r="E27" t="s">
+        <v>462</v>
+      </c>
+      <c r="F27" t="s">
+        <v>457</v>
+      </c>
+      <c r="G27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="68"/>
+      <c r="E28" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="F21" t="s">
-        <v>456</v>
-      </c>
-      <c r="G21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="70"/>
-      <c r="E22" t="s">
-        <v>457</v>
-      </c>
-      <c r="F22" t="s">
-        <v>458</v>
-      </c>
-      <c r="G22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="70"/>
-      <c r="E23" t="s">
-        <v>459</v>
-      </c>
-      <c r="F23" t="s">
-        <v>458</v>
-      </c>
-      <c r="G23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="70"/>
-      <c r="E24" t="s">
-        <v>460</v>
-      </c>
-      <c r="F24" t="s">
-        <v>458</v>
-      </c>
-      <c r="G24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="70"/>
-      <c r="E25" t="s">
-        <v>461</v>
-      </c>
-      <c r="F25" t="s">
-        <v>458</v>
-      </c>
-      <c r="G25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="70"/>
-      <c r="E26" t="s">
-        <v>462</v>
-      </c>
-      <c r="F26" t="s">
-        <v>458</v>
-      </c>
-      <c r="G26" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="70"/>
-      <c r="E27" t="s">
-        <v>463</v>
-      </c>
-      <c r="F27" t="s">
-        <v>458</v>
-      </c>
-      <c r="G27" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="70"/>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
+        <v>449</v>
+      </c>
+      <c r="F29" t="s">
         <v>464</v>
       </c>
-      <c r="F28" t="s">
-        <v>458</v>
-      </c>
-      <c r="G28" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="70" t="s">
-        <v>449</v>
-      </c>
-      <c r="E29" t="s">
-        <v>450</v>
-      </c>
-      <c r="F29" t="s">
-        <v>465</v>
-      </c>
       <c r="G29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F36" t="s">
         <v>457</v>
       </c>
-      <c r="F36" t="s">
-        <v>458</v>
-      </c>
       <c r="G36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -12919,14 +12930,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49005765-97C5-4AC1-AFAA-5931329AAD44}">
-  <dimension ref="A1"/>
+  <dimension ref="B19:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
